--- a/KaryotypingPinnacle/CNN/theWholeSampleID.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeSampleID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5460" uniqueCount="2706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="2814">
   <si>
     <t>Chromosome</t>
   </si>
@@ -6497,6 +6497,330 @@
   </si>
   <si>
     <t>W28055~A.0012.X.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_1.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_10.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_11.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_12.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_13.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_14.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_15.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_16.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_17.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_19.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_2.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_20.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_22.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_23.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_24.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_25.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_3.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_4.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_5.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_6.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_7.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_8.bmp</t>
+  </si>
+  <si>
+    <t>183873-del(18)(p11)-_Y_9.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_1.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_10.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_11.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_12.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_13.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_14.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_15.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_16.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_17.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_18.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_19.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_20.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_21.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_22.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_23.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_24.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_25.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_26.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_3.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_4.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_5.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_6.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_8.bmp</t>
+  </si>
+  <si>
+    <t>184431-Y_9.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_1.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_10.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_11.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_13.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_14.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_15.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_17.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_18.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_19.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_2.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_20.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_21.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_22.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_23.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_3.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_6.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_8.bmp</t>
+  </si>
+  <si>
+    <t>190258-_Y_9.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_1.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_10.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_12.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_13.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_14.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_15.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_16.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_17.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_18.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_19.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_2.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_20.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_21.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_3.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_4.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_6.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_7.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_8.bmp</t>
+  </si>
+  <si>
+    <t>191225-_Y_9.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_1.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_10.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_11.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_12.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_13.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_14.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_15.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_16.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_17.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_18.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_19.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_2.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_20.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_21.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_22.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_24.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_25.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_3.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_4.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_5.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_6.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_7.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_8.bmp</t>
+  </si>
+  <si>
+    <t>193067-_Y_9.bmp</t>
   </si>
   <si>
     <t>w21001~A.0008.K.jpg.y.bmp</t>
@@ -8489,7 +8813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2730"/>
+  <dimension ref="A1:C2838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32543,7 +32867,7 @@
         <v>2185</v>
       </c>
       <c r="B2187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2187" t="s">
         <v>2190</v>
@@ -32554,7 +32878,7 @@
         <v>2186</v>
       </c>
       <c r="B2188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2188" t="s">
         <v>2191</v>
@@ -32565,7 +32889,7 @@
         <v>2187</v>
       </c>
       <c r="B2189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2189" t="s">
         <v>2192</v>
@@ -32576,7 +32900,7 @@
         <v>2188</v>
       </c>
       <c r="B2190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2190" t="s">
         <v>2193</v>
@@ -32587,7 +32911,7 @@
         <v>2189</v>
       </c>
       <c r="B2191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2191" t="s">
         <v>2194</v>
@@ -32598,7 +32922,7 @@
         <v>2190</v>
       </c>
       <c r="B2192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2192" t="s">
         <v>2195</v>
@@ -32609,7 +32933,7 @@
         <v>2191</v>
       </c>
       <c r="B2193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2193" t="s">
         <v>2196</v>
@@ -32620,7 +32944,7 @@
         <v>2192</v>
       </c>
       <c r="B2194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2194" t="s">
         <v>2197</v>
@@ -32631,7 +32955,7 @@
         <v>2193</v>
       </c>
       <c r="B2195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2195" t="s">
         <v>2198</v>
@@ -32642,7 +32966,7 @@
         <v>2194</v>
       </c>
       <c r="B2196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2196" t="s">
         <v>2199</v>
@@ -32653,7 +32977,7 @@
         <v>2195</v>
       </c>
       <c r="B2197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2197" t="s">
         <v>2200</v>
@@ -32664,7 +32988,7 @@
         <v>2196</v>
       </c>
       <c r="B2198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2198" t="s">
         <v>2201</v>
@@ -32675,7 +32999,7 @@
         <v>2197</v>
       </c>
       <c r="B2199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2199" t="s">
         <v>2202</v>
@@ -32686,7 +33010,7 @@
         <v>2198</v>
       </c>
       <c r="B2200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2200" t="s">
         <v>2203</v>
@@ -32697,7 +33021,7 @@
         <v>2199</v>
       </c>
       <c r="B2201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2201" t="s">
         <v>2204</v>
@@ -32708,7 +33032,7 @@
         <v>2200</v>
       </c>
       <c r="B2202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2202" t="s">
         <v>2205</v>
@@ -32719,7 +33043,7 @@
         <v>2201</v>
       </c>
       <c r="B2203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2203" t="s">
         <v>2206</v>
@@ -32730,7 +33054,7 @@
         <v>2202</v>
       </c>
       <c r="B2204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2204" t="s">
         <v>2207</v>
@@ -32741,7 +33065,7 @@
         <v>2203</v>
       </c>
       <c r="B2205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2205" t="s">
         <v>2208</v>
@@ -32752,7 +33076,7 @@
         <v>2204</v>
       </c>
       <c r="B2206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2206" t="s">
         <v>2209</v>
@@ -32763,7 +33087,7 @@
         <v>2205</v>
       </c>
       <c r="B2207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2207" t="s">
         <v>2210</v>
@@ -32774,7 +33098,7 @@
         <v>2206</v>
       </c>
       <c r="B2208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2208" t="s">
         <v>2211</v>
@@ -32785,7 +33109,7 @@
         <v>2207</v>
       </c>
       <c r="B2209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2209" t="s">
         <v>2212</v>
@@ -32796,7 +33120,7 @@
         <v>2208</v>
       </c>
       <c r="B2210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2210" t="s">
         <v>2213</v>
@@ -32807,7 +33131,7 @@
         <v>2209</v>
       </c>
       <c r="B2211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2211" t="s">
         <v>2214</v>
@@ -32818,7 +33142,7 @@
         <v>2210</v>
       </c>
       <c r="B2212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2212" t="s">
         <v>2215</v>
@@ -32829,7 +33153,7 @@
         <v>2211</v>
       </c>
       <c r="B2213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2213" t="s">
         <v>2216</v>
@@ -32840,7 +33164,7 @@
         <v>2212</v>
       </c>
       <c r="B2214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2214" t="s">
         <v>2217</v>
@@ -32851,7 +33175,7 @@
         <v>2213</v>
       </c>
       <c r="B2215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2215" t="s">
         <v>2218</v>
@@ -32862,7 +33186,7 @@
         <v>2214</v>
       </c>
       <c r="B2216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2216" t="s">
         <v>2219</v>
@@ -32873,7 +33197,7 @@
         <v>2215</v>
       </c>
       <c r="B2217" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2217" t="s">
         <v>2220</v>
@@ -32884,7 +33208,7 @@
         <v>2216</v>
       </c>
       <c r="B2218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2218" t="s">
         <v>2221</v>
@@ -32895,7 +33219,7 @@
         <v>2217</v>
       </c>
       <c r="B2219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2219" t="s">
         <v>2222</v>
@@ -32906,7 +33230,7 @@
         <v>2218</v>
       </c>
       <c r="B2220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2220" t="s">
         <v>2223</v>
@@ -32917,7 +33241,7 @@
         <v>2219</v>
       </c>
       <c r="B2221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2221" t="s">
         <v>2224</v>
@@ -32928,7 +33252,7 @@
         <v>2220</v>
       </c>
       <c r="B2222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2222" t="s">
         <v>2225</v>
@@ -32939,7 +33263,7 @@
         <v>2221</v>
       </c>
       <c r="B2223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2223" t="s">
         <v>2226</v>
@@ -32950,7 +33274,7 @@
         <v>2222</v>
       </c>
       <c r="B2224" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2224" t="s">
         <v>2227</v>
@@ -32961,7 +33285,7 @@
         <v>2223</v>
       </c>
       <c r="B2225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2225" t="s">
         <v>2228</v>
@@ -32972,7 +33296,7 @@
         <v>2224</v>
       </c>
       <c r="B2226" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2226" t="s">
         <v>2229</v>
@@ -32983,7 +33307,7 @@
         <v>2225</v>
       </c>
       <c r="B2227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2227" t="s">
         <v>2230</v>
@@ -32994,7 +33318,7 @@
         <v>2226</v>
       </c>
       <c r="B2228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2228" t="s">
         <v>2231</v>
@@ -33005,7 +33329,7 @@
         <v>2227</v>
       </c>
       <c r="B2229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2229" t="s">
         <v>2232</v>
@@ -33016,7 +33340,7 @@
         <v>2228</v>
       </c>
       <c r="B2230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2230" t="s">
         <v>2233</v>
@@ -33027,7 +33351,7 @@
         <v>2229</v>
       </c>
       <c r="B2231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2231" t="s">
         <v>2234</v>
@@ -33038,10 +33362,10 @@
         <v>2230</v>
       </c>
       <c r="B2232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2232" t="s">
-        <v>370</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
@@ -33049,10 +33373,10 @@
         <v>2231</v>
       </c>
       <c r="B2233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2233" t="s">
-        <v>372</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
@@ -33060,10 +33384,10 @@
         <v>2232</v>
       </c>
       <c r="B2234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2234" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
@@ -33071,10 +33395,10 @@
         <v>2233</v>
       </c>
       <c r="B2235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2235" t="s">
-        <v>374</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="2236" spans="1:3">
@@ -33082,10 +33406,10 @@
         <v>2234</v>
       </c>
       <c r="B2236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2236" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="2237" spans="1:3">
@@ -33093,10 +33417,10 @@
         <v>2235</v>
       </c>
       <c r="B2237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2237" t="s">
-        <v>376</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
@@ -33104,10 +33428,10 @@
         <v>2236</v>
       </c>
       <c r="B2238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2238" t="s">
-        <v>378</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
@@ -33115,10 +33439,10 @@
         <v>2237</v>
       </c>
       <c r="B2239" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2239" t="s">
-        <v>380</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
@@ -33126,10 +33450,10 @@
         <v>2238</v>
       </c>
       <c r="B2240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2240" t="s">
-        <v>382</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="2241" spans="1:3">
@@ -33137,10 +33461,10 @@
         <v>2239</v>
       </c>
       <c r="B2241" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2241" t="s">
-        <v>384</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="2242" spans="1:3">
@@ -33148,10 +33472,10 @@
         <v>2240</v>
       </c>
       <c r="B2242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2242" t="s">
-        <v>386</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
@@ -33159,10 +33483,10 @@
         <v>2241</v>
       </c>
       <c r="B2243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2243" t="s">
-        <v>388</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
@@ -33170,10 +33494,10 @@
         <v>2242</v>
       </c>
       <c r="B2244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2244" t="s">
-        <v>390</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
@@ -33181,10 +33505,10 @@
         <v>2243</v>
       </c>
       <c r="B2245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2245" t="s">
-        <v>392</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
@@ -33192,10 +33516,10 @@
         <v>2244</v>
       </c>
       <c r="B2246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2246" t="s">
-        <v>394</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
@@ -33203,10 +33527,10 @@
         <v>2245</v>
       </c>
       <c r="B2247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2247" t="s">
-        <v>396</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
@@ -33214,10 +33538,10 @@
         <v>2246</v>
       </c>
       <c r="B2248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2248" t="s">
-        <v>397</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
@@ -33225,10 +33549,10 @@
         <v>2247</v>
       </c>
       <c r="B2249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2249" t="s">
-        <v>399</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
@@ -33236,10 +33560,10 @@
         <v>2248</v>
       </c>
       <c r="B2250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2250" t="s">
-        <v>401</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
@@ -33247,10 +33571,10 @@
         <v>2249</v>
       </c>
       <c r="B2251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2251" t="s">
-        <v>403</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
@@ -33258,10 +33582,10 @@
         <v>2250</v>
       </c>
       <c r="B2252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2252" t="s">
-        <v>405</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
@@ -33269,10 +33593,10 @@
         <v>2251</v>
       </c>
       <c r="B2253" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2253" t="s">
-        <v>407</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
@@ -33280,10 +33604,10 @@
         <v>2252</v>
       </c>
       <c r="B2254" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2254" t="s">
-        <v>409</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="2255" spans="1:3">
@@ -33291,10 +33615,10 @@
         <v>2253</v>
       </c>
       <c r="B2255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2255" t="s">
-        <v>411</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="2256" spans="1:3">
@@ -33302,10 +33626,10 @@
         <v>2254</v>
       </c>
       <c r="B2256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2256" t="s">
-        <v>413</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
@@ -33313,10 +33637,10 @@
         <v>2255</v>
       </c>
       <c r="B2257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2257" t="s">
-        <v>415</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
@@ -33324,10 +33648,10 @@
         <v>2256</v>
       </c>
       <c r="B2258" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2258" t="s">
-        <v>417</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
@@ -33335,10 +33659,10 @@
         <v>2257</v>
       </c>
       <c r="B2259" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2259" t="s">
-        <v>419</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
@@ -33346,10 +33670,10 @@
         <v>2258</v>
       </c>
       <c r="B2260" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2260" t="s">
-        <v>421</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
@@ -33357,10 +33681,10 @@
         <v>2259</v>
       </c>
       <c r="B2261" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2261" t="s">
-        <v>423</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
@@ -33368,10 +33692,10 @@
         <v>2260</v>
       </c>
       <c r="B2262" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2262" t="s">
-        <v>2237</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
@@ -33379,10 +33703,10 @@
         <v>2261</v>
       </c>
       <c r="B2263" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2263" t="s">
-        <v>2238</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
@@ -33390,10 +33714,10 @@
         <v>2262</v>
       </c>
       <c r="B2264" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2264" t="s">
-        <v>2239</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
@@ -33401,10 +33725,10 @@
         <v>2263</v>
       </c>
       <c r="B2265" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2265" t="s">
-        <v>2240</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
@@ -33412,10 +33736,10 @@
         <v>2264</v>
       </c>
       <c r="B2266" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2266" t="s">
-        <v>2241</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -33423,10 +33747,10 @@
         <v>2265</v>
       </c>
       <c r="B2267" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2267" t="s">
-        <v>2242</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -33434,10 +33758,10 @@
         <v>2266</v>
       </c>
       <c r="B2268" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2268" t="s">
-        <v>2243</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
@@ -33445,10 +33769,10 @@
         <v>2267</v>
       </c>
       <c r="B2269" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2269" t="s">
-        <v>2244</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -33456,10 +33780,10 @@
         <v>2268</v>
       </c>
       <c r="B2270" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2270" t="s">
-        <v>2245</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
@@ -33467,10 +33791,10 @@
         <v>2269</v>
       </c>
       <c r="B2271" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2271" t="s">
-        <v>2246</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
@@ -33478,10 +33802,10 @@
         <v>2270</v>
       </c>
       <c r="B2272" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2272" t="s">
-        <v>2247</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
@@ -33489,10 +33813,10 @@
         <v>2271</v>
       </c>
       <c r="B2273" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2273" t="s">
-        <v>2248</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -33500,10 +33824,10 @@
         <v>2272</v>
       </c>
       <c r="B2274" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2274" t="s">
-        <v>2249</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
@@ -33511,10 +33835,10 @@
         <v>2273</v>
       </c>
       <c r="B2275" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2275" t="s">
-        <v>2250</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -33522,10 +33846,10 @@
         <v>2274</v>
       </c>
       <c r="B2276" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2276" t="s">
-        <v>2251</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -33533,10 +33857,10 @@
         <v>2275</v>
       </c>
       <c r="B2277" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2277" t="s">
-        <v>2252</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -33544,10 +33868,10 @@
         <v>2276</v>
       </c>
       <c r="B2278" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2278" t="s">
-        <v>2253</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -33555,10 +33879,10 @@
         <v>2277</v>
       </c>
       <c r="B2279" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2279" t="s">
-        <v>2254</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -33566,10 +33890,10 @@
         <v>2278</v>
       </c>
       <c r="B2280" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2280" t="s">
-        <v>2255</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
@@ -33577,10 +33901,10 @@
         <v>2279</v>
       </c>
       <c r="B2281" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2281" t="s">
-        <v>2256</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -33588,10 +33912,10 @@
         <v>2280</v>
       </c>
       <c r="B2282" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2282" t="s">
-        <v>2257</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -33599,10 +33923,10 @@
         <v>2281</v>
       </c>
       <c r="B2283" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2283" t="s">
-        <v>2258</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -33610,10 +33934,10 @@
         <v>2282</v>
       </c>
       <c r="B2284" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2284" t="s">
-        <v>2259</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -33621,10 +33945,10 @@
         <v>2283</v>
       </c>
       <c r="B2285" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2285" t="s">
-        <v>2260</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -33632,10 +33956,10 @@
         <v>2284</v>
       </c>
       <c r="B2286" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2286" t="s">
-        <v>2261</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -33643,10 +33967,10 @@
         <v>2285</v>
       </c>
       <c r="B2287" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2287" t="s">
-        <v>2262</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -33654,10 +33978,10 @@
         <v>2286</v>
       </c>
       <c r="B2288" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2288" t="s">
-        <v>2263</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -33665,10 +33989,10 @@
         <v>2287</v>
       </c>
       <c r="B2289" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2289" t="s">
-        <v>2264</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -33676,10 +34000,10 @@
         <v>2288</v>
       </c>
       <c r="B2290" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2290" t="s">
-        <v>2265</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -33687,10 +34011,10 @@
         <v>2289</v>
       </c>
       <c r="B2291" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2291" t="s">
-        <v>2266</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -33698,10 +34022,10 @@
         <v>2290</v>
       </c>
       <c r="B2292" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2292" t="s">
-        <v>2267</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -33709,10 +34033,10 @@
         <v>2291</v>
       </c>
       <c r="B2293" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2293" t="s">
-        <v>2268</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -33720,10 +34044,10 @@
         <v>2292</v>
       </c>
       <c r="B2294" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2294" t="s">
-        <v>2269</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -33731,10 +34055,10 @@
         <v>2293</v>
       </c>
       <c r="B2295" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2295" t="s">
-        <v>2270</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -33742,10 +34066,10 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2296" t="s">
-        <v>2271</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -33753,10 +34077,10 @@
         <v>2295</v>
       </c>
       <c r="B2297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2297" t="s">
-        <v>2272</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -33764,10 +34088,10 @@
         <v>2296</v>
       </c>
       <c r="B2298" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2298" t="s">
-        <v>2273</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
@@ -33775,10 +34099,10 @@
         <v>2297</v>
       </c>
       <c r="B2299" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2299" t="s">
-        <v>2274</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -33786,10 +34110,10 @@
         <v>2298</v>
       </c>
       <c r="B2300" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2300" t="s">
-        <v>2275</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -33797,10 +34121,10 @@
         <v>2299</v>
       </c>
       <c r="B2301" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2301" t="s">
-        <v>2276</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -33808,10 +34132,10 @@
         <v>2300</v>
       </c>
       <c r="B2302" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2302" t="s">
-        <v>2277</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -33819,10 +34143,10 @@
         <v>2301</v>
       </c>
       <c r="B2303" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2303" t="s">
-        <v>2278</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
@@ -33830,10 +34154,10 @@
         <v>2302</v>
       </c>
       <c r="B2304" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2304" t="s">
-        <v>2279</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -33841,10 +34165,10 @@
         <v>2303</v>
       </c>
       <c r="B2305" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2305" t="s">
-        <v>2280</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
@@ -33852,10 +34176,10 @@
         <v>2304</v>
       </c>
       <c r="B2306" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2306" t="s">
-        <v>2281</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
@@ -33863,10 +34187,10 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2307" t="s">
-        <v>2282</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
@@ -33874,10 +34198,10 @@
         <v>2306</v>
       </c>
       <c r="B2308" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2308" t="s">
-        <v>2283</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -33885,10 +34209,10 @@
         <v>2307</v>
       </c>
       <c r="B2309" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2309" t="s">
-        <v>2284</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
@@ -33896,10 +34220,10 @@
         <v>2308</v>
       </c>
       <c r="B2310" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2310" t="s">
-        <v>2285</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
@@ -33907,10 +34231,10 @@
         <v>2309</v>
       </c>
       <c r="B2311" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2311" t="s">
-        <v>2286</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
@@ -33918,10 +34242,10 @@
         <v>2310</v>
       </c>
       <c r="B2312" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2312" t="s">
-        <v>2287</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -33929,10 +34253,10 @@
         <v>2311</v>
       </c>
       <c r="B2313" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2313" t="s">
-        <v>2288</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -33940,10 +34264,10 @@
         <v>2312</v>
       </c>
       <c r="B2314" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2314" t="s">
-        <v>2289</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -33951,10 +34275,10 @@
         <v>2313</v>
       </c>
       <c r="B2315" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2315" t="s">
-        <v>2290</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
@@ -33962,10 +34286,10 @@
         <v>2314</v>
       </c>
       <c r="B2316" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2316" t="s">
-        <v>2291</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
@@ -33973,10 +34297,10 @@
         <v>2315</v>
       </c>
       <c r="B2317" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2317" t="s">
-        <v>2292</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
@@ -33984,10 +34308,10 @@
         <v>2316</v>
       </c>
       <c r="B2318" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2318" t="s">
-        <v>2293</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
@@ -33995,10 +34319,10 @@
         <v>2317</v>
       </c>
       <c r="B2319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2319" t="s">
-        <v>2294</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
@@ -34006,10 +34330,10 @@
         <v>2318</v>
       </c>
       <c r="B2320" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2320" t="s">
-        <v>2295</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
@@ -34017,10 +34341,10 @@
         <v>2319</v>
       </c>
       <c r="B2321" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2321" t="s">
-        <v>2296</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
@@ -34028,10 +34352,10 @@
         <v>2320</v>
       </c>
       <c r="B2322" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2322" t="s">
-        <v>2297</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
@@ -34039,10 +34363,10 @@
         <v>2321</v>
       </c>
       <c r="B2323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2323" t="s">
-        <v>2298</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
@@ -34050,10 +34374,10 @@
         <v>2322</v>
       </c>
       <c r="B2324" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2324" t="s">
-        <v>2299</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
@@ -34061,10 +34385,10 @@
         <v>2323</v>
       </c>
       <c r="B2325" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2325" t="s">
-        <v>2300</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -34072,10 +34396,10 @@
         <v>2324</v>
       </c>
       <c r="B2326" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2326" t="s">
-        <v>2301</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -34083,10 +34407,10 @@
         <v>2325</v>
       </c>
       <c r="B2327" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2327" t="s">
-        <v>2302</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -34094,10 +34418,10 @@
         <v>2326</v>
       </c>
       <c r="B2328" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2328" t="s">
-        <v>2303</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -34105,10 +34429,10 @@
         <v>2327</v>
       </c>
       <c r="B2329" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2329" t="s">
-        <v>2304</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
@@ -34116,10 +34440,10 @@
         <v>2328</v>
       </c>
       <c r="B2330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2330" t="s">
-        <v>2305</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -34127,10 +34451,10 @@
         <v>2329</v>
       </c>
       <c r="B2331" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2331" t="s">
-        <v>2306</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -34138,10 +34462,10 @@
         <v>2330</v>
       </c>
       <c r="B2332" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2332" t="s">
-        <v>2307</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -34149,10 +34473,10 @@
         <v>2331</v>
       </c>
       <c r="B2333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2333" t="s">
-        <v>2308</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -34160,10 +34484,10 @@
         <v>2332</v>
       </c>
       <c r="B2334" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2334" t="s">
-        <v>2309</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -34171,10 +34495,10 @@
         <v>2333</v>
       </c>
       <c r="B2335" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2335" t="s">
-        <v>2310</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -34182,10 +34506,10 @@
         <v>2334</v>
       </c>
       <c r="B2336" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2336" t="s">
-        <v>2311</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -34193,10 +34517,10 @@
         <v>2335</v>
       </c>
       <c r="B2337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2337" t="s">
-        <v>2312</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -34204,10 +34528,10 @@
         <v>2336</v>
       </c>
       <c r="B2338" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2338" t="s">
-        <v>2313</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -34215,10 +34539,10 @@
         <v>2337</v>
       </c>
       <c r="B2339" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2339" t="s">
-        <v>2314</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -34226,10 +34550,10 @@
         <v>2338</v>
       </c>
       <c r="B2340" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2340" t="s">
-        <v>2315</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -34237,10 +34561,10 @@
         <v>2339</v>
       </c>
       <c r="B2341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2341" t="s">
-        <v>2316</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -34248,10 +34572,10 @@
         <v>2340</v>
       </c>
       <c r="B2342" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2342" t="s">
-        <v>2317</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -34259,10 +34583,10 @@
         <v>2341</v>
       </c>
       <c r="B2343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2343" t="s">
-        <v>2318</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -34270,10 +34594,10 @@
         <v>2342</v>
       </c>
       <c r="B2344" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2344" t="s">
-        <v>2319</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -34281,10 +34605,10 @@
         <v>2343</v>
       </c>
       <c r="B2345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2345" t="s">
-        <v>2320</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -34292,10 +34616,10 @@
         <v>2344</v>
       </c>
       <c r="B2346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2346" t="s">
-        <v>2321</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -34303,10 +34627,10 @@
         <v>2345</v>
       </c>
       <c r="B2347" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2347" t="s">
-        <v>2322</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -34314,10 +34638,10 @@
         <v>2346</v>
       </c>
       <c r="B2348" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2348" t="s">
-        <v>2323</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -34325,10 +34649,10 @@
         <v>2347</v>
       </c>
       <c r="B2349" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2349" t="s">
-        <v>2324</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -34336,10 +34660,10 @@
         <v>2348</v>
       </c>
       <c r="B2350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2350" t="s">
-        <v>2325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -34347,10 +34671,10 @@
         <v>2349</v>
       </c>
       <c r="B2351" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2351" t="s">
-        <v>2326</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -34358,10 +34682,10 @@
         <v>2350</v>
       </c>
       <c r="B2352" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2352" t="s">
-        <v>2327</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -34369,10 +34693,10 @@
         <v>2351</v>
       </c>
       <c r="B2353" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2353" t="s">
-        <v>2328</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -34380,10 +34704,10 @@
         <v>2352</v>
       </c>
       <c r="B2354" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2354" t="s">
-        <v>2329</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -34391,10 +34715,10 @@
         <v>2353</v>
       </c>
       <c r="B2355" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2355" t="s">
-        <v>2330</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -34402,10 +34726,10 @@
         <v>2354</v>
       </c>
       <c r="B2356" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2356" t="s">
-        <v>2331</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -34413,10 +34737,10 @@
         <v>2355</v>
       </c>
       <c r="B2357" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2357" t="s">
-        <v>2332</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -34424,10 +34748,10 @@
         <v>2356</v>
       </c>
       <c r="B2358" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2358" t="s">
-        <v>2333</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -34435,10 +34759,10 @@
         <v>2357</v>
       </c>
       <c r="B2359" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2359" t="s">
-        <v>2334</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -34446,10 +34770,10 @@
         <v>2358</v>
       </c>
       <c r="B2360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2360" t="s">
-        <v>2335</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -34457,10 +34781,10 @@
         <v>2359</v>
       </c>
       <c r="B2361" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2361" t="s">
-        <v>2336</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -34468,10 +34792,10 @@
         <v>2360</v>
       </c>
       <c r="B2362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2362" t="s">
-        <v>2337</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -34479,10 +34803,10 @@
         <v>2361</v>
       </c>
       <c r="B2363" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2363" t="s">
-        <v>2338</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -34490,10 +34814,10 @@
         <v>2362</v>
       </c>
       <c r="B2364" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2364" t="s">
-        <v>2339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -34501,10 +34825,10 @@
         <v>2363</v>
       </c>
       <c r="B2365" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2365" t="s">
-        <v>2340</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -34512,10 +34836,10 @@
         <v>2364</v>
       </c>
       <c r="B2366" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2366" t="s">
-        <v>2341</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -34523,10 +34847,10 @@
         <v>2365</v>
       </c>
       <c r="B2367" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2367" t="s">
-        <v>2342</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -34534,10 +34858,10 @@
         <v>2366</v>
       </c>
       <c r="B2368" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2368" t="s">
-        <v>2343</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -34545,10 +34869,10 @@
         <v>2367</v>
       </c>
       <c r="B2369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2369" t="s">
-        <v>2344</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -34556,7 +34880,7 @@
         <v>2368</v>
       </c>
       <c r="B2370" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2370" t="s">
         <v>2345</v>
@@ -34567,7 +34891,7 @@
         <v>2369</v>
       </c>
       <c r="B2371" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2371" t="s">
         <v>2346</v>
@@ -34578,7 +34902,7 @@
         <v>2370</v>
       </c>
       <c r="B2372" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2372" t="s">
         <v>2347</v>
@@ -34589,7 +34913,7 @@
         <v>2371</v>
       </c>
       <c r="B2373" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2373" t="s">
         <v>2348</v>
@@ -34600,7 +34924,7 @@
         <v>2372</v>
       </c>
       <c r="B2374" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2374" t="s">
         <v>2349</v>
@@ -34611,7 +34935,7 @@
         <v>2373</v>
       </c>
       <c r="B2375" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2375" t="s">
         <v>2350</v>
@@ -34622,7 +34946,7 @@
         <v>2374</v>
       </c>
       <c r="B2376" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2376" t="s">
         <v>2351</v>
@@ -34633,7 +34957,7 @@
         <v>2375</v>
       </c>
       <c r="B2377" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2377" t="s">
         <v>2352</v>
@@ -34644,7 +34968,7 @@
         <v>2376</v>
       </c>
       <c r="B2378" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2378" t="s">
         <v>2353</v>
@@ -34655,7 +34979,7 @@
         <v>2377</v>
       </c>
       <c r="B2379" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2379" t="s">
         <v>2354</v>
@@ -34666,7 +34990,7 @@
         <v>2378</v>
       </c>
       <c r="B2380" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2380" t="s">
         <v>2355</v>
@@ -34677,7 +35001,7 @@
         <v>2379</v>
       </c>
       <c r="B2381" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2381" t="s">
         <v>2356</v>
@@ -34688,7 +35012,7 @@
         <v>2380</v>
       </c>
       <c r="B2382" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2382" t="s">
         <v>2357</v>
@@ -34699,7 +35023,7 @@
         <v>2381</v>
       </c>
       <c r="B2383" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2383" t="s">
         <v>2358</v>
@@ -34710,7 +35034,7 @@
         <v>2382</v>
       </c>
       <c r="B2384" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2384" t="s">
         <v>2359</v>
@@ -34721,7 +35045,7 @@
         <v>2383</v>
       </c>
       <c r="B2385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2385" t="s">
         <v>2360</v>
@@ -34732,7 +35056,7 @@
         <v>2384</v>
       </c>
       <c r="B2386" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2386" t="s">
         <v>2361</v>
@@ -34743,7 +35067,7 @@
         <v>2385</v>
       </c>
       <c r="B2387" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2387" t="s">
         <v>2362</v>
@@ -34754,7 +35078,7 @@
         <v>2386</v>
       </c>
       <c r="B2388" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2388" t="s">
         <v>2363</v>
@@ -34765,7 +35089,7 @@
         <v>2387</v>
       </c>
       <c r="B2389" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2389" t="s">
         <v>2364</v>
@@ -34776,7 +35100,7 @@
         <v>2388</v>
       </c>
       <c r="B2390" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2390" t="s">
         <v>2365</v>
@@ -34787,7 +35111,7 @@
         <v>2389</v>
       </c>
       <c r="B2391" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2391" t="s">
         <v>2366</v>
@@ -34798,7 +35122,7 @@
         <v>2390</v>
       </c>
       <c r="B2392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2392" t="s">
         <v>2367</v>
@@ -34809,7 +35133,7 @@
         <v>2391</v>
       </c>
       <c r="B2393" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2393" t="s">
         <v>2368</v>
@@ -34820,7 +35144,7 @@
         <v>2392</v>
       </c>
       <c r="B2394" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2394" t="s">
         <v>2369</v>
@@ -34831,7 +35155,7 @@
         <v>2393</v>
       </c>
       <c r="B2395" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2395" t="s">
         <v>2370</v>
@@ -34842,7 +35166,7 @@
         <v>2394</v>
       </c>
       <c r="B2396" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2396" t="s">
         <v>2371</v>
@@ -34853,7 +35177,7 @@
         <v>2395</v>
       </c>
       <c r="B2397" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2397" t="s">
         <v>2372</v>
@@ -34864,7 +35188,7 @@
         <v>2396</v>
       </c>
       <c r="B2398" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2398" t="s">
         <v>2373</v>
@@ -34875,7 +35199,7 @@
         <v>2397</v>
       </c>
       <c r="B2399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2399" t="s">
         <v>2374</v>
@@ -34886,7 +35210,7 @@
         <v>2398</v>
       </c>
       <c r="B2400" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2400" t="s">
         <v>2375</v>
@@ -35612,7 +35936,7 @@
         <v>2464</v>
       </c>
       <c r="B2466" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2466" t="s">
         <v>2441</v>
@@ -35623,7 +35947,7 @@
         <v>2465</v>
       </c>
       <c r="B2467" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2467" t="s">
         <v>2442</v>
@@ -35634,7 +35958,7 @@
         <v>2466</v>
       </c>
       <c r="B2468" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2468" t="s">
         <v>2443</v>
@@ -35645,7 +35969,7 @@
         <v>2467</v>
       </c>
       <c r="B2469" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2469" t="s">
         <v>2444</v>
@@ -35656,7 +35980,7 @@
         <v>2468</v>
       </c>
       <c r="B2470" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2470" t="s">
         <v>2445</v>
@@ -35667,7 +35991,7 @@
         <v>2469</v>
       </c>
       <c r="B2471" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2471" t="s">
         <v>2446</v>
@@ -35678,7 +36002,7 @@
         <v>2470</v>
       </c>
       <c r="B2472" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2472" t="s">
         <v>2447</v>
@@ -35689,7 +36013,7 @@
         <v>2471</v>
       </c>
       <c r="B2473" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2473" t="s">
         <v>2448</v>
@@ -35700,7 +36024,7 @@
         <v>2472</v>
       </c>
       <c r="B2474" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2474" t="s">
         <v>2449</v>
@@ -35711,7 +36035,7 @@
         <v>2473</v>
       </c>
       <c r="B2475" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2475" t="s">
         <v>2450</v>
@@ -35722,7 +36046,7 @@
         <v>2474</v>
       </c>
       <c r="B2476" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2476" t="s">
         <v>2451</v>
@@ -35733,7 +36057,7 @@
         <v>2475</v>
       </c>
       <c r="B2477" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2477" t="s">
         <v>2452</v>
@@ -35744,7 +36068,7 @@
         <v>2476</v>
       </c>
       <c r="B2478" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2478" t="s">
         <v>2453</v>
@@ -35755,7 +36079,7 @@
         <v>2477</v>
       </c>
       <c r="B2479" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2479" t="s">
         <v>2454</v>
@@ -35766,7 +36090,7 @@
         <v>2478</v>
       </c>
       <c r="B2480" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2480" t="s">
         <v>2455</v>
@@ -35777,7 +36101,7 @@
         <v>2479</v>
       </c>
       <c r="B2481" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2481" t="s">
         <v>2456</v>
@@ -35788,7 +36112,7 @@
         <v>2480</v>
       </c>
       <c r="B2482" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2482" t="s">
         <v>2457</v>
@@ -35799,7 +36123,7 @@
         <v>2481</v>
       </c>
       <c r="B2483" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2483" t="s">
         <v>2458</v>
@@ -35810,7 +36134,7 @@
         <v>2482</v>
       </c>
       <c r="B2484" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2484" t="s">
         <v>2459</v>
@@ -35821,7 +36145,7 @@
         <v>2483</v>
       </c>
       <c r="B2485" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2485" t="s">
         <v>2460</v>
@@ -35832,7 +36156,7 @@
         <v>2484</v>
       </c>
       <c r="B2486" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2486" t="s">
         <v>2461</v>
@@ -35843,7 +36167,7 @@
         <v>2485</v>
       </c>
       <c r="B2487" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2487" t="s">
         <v>2462</v>
@@ -35854,7 +36178,7 @@
         <v>2486</v>
       </c>
       <c r="B2488" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2488" t="s">
         <v>2463</v>
@@ -35865,7 +36189,7 @@
         <v>2487</v>
       </c>
       <c r="B2489" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2489" t="s">
         <v>2464</v>
@@ -35876,7 +36200,7 @@
         <v>2488</v>
       </c>
       <c r="B2490" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2490" t="s">
         <v>2465</v>
@@ -35887,7 +36211,7 @@
         <v>2489</v>
       </c>
       <c r="B2491" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2491" t="s">
         <v>2466</v>
@@ -35898,7 +36222,7 @@
         <v>2490</v>
       </c>
       <c r="B2492" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2492" t="s">
         <v>2467</v>
@@ -35909,7 +36233,7 @@
         <v>2491</v>
       </c>
       <c r="B2493" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2493" t="s">
         <v>2468</v>
@@ -35920,7 +36244,7 @@
         <v>2492</v>
       </c>
       <c r="B2494" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2494" t="s">
         <v>2469</v>
@@ -35931,7 +36255,7 @@
         <v>2493</v>
       </c>
       <c r="B2495" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2495" t="s">
         <v>2470</v>
@@ -35942,7 +36266,7 @@
         <v>2494</v>
       </c>
       <c r="B2496" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2496" t="s">
         <v>2471</v>
@@ -35953,7 +36277,7 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2497" t="s">
         <v>2472</v>
@@ -35964,7 +36288,7 @@
         <v>2496</v>
       </c>
       <c r="B2498" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2498" t="s">
         <v>2473</v>
@@ -35975,7 +36299,7 @@
         <v>2497</v>
       </c>
       <c r="B2499" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2499" t="s">
         <v>2474</v>
@@ -35986,7 +36310,7 @@
         <v>2498</v>
       </c>
       <c r="B2500" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2500" t="s">
         <v>2475</v>
@@ -35997,7 +36321,7 @@
         <v>2499</v>
       </c>
       <c r="B2501" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2501" t="s">
         <v>2476</v>
@@ -36008,7 +36332,7 @@
         <v>2500</v>
       </c>
       <c r="B2502" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2502" t="s">
         <v>2477</v>
@@ -36019,7 +36343,7 @@
         <v>2501</v>
       </c>
       <c r="B2503" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2503" t="s">
         <v>2478</v>
@@ -36030,7 +36354,7 @@
         <v>2502</v>
       </c>
       <c r="B2504" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2504" t="s">
         <v>2479</v>
@@ -36041,7 +36365,7 @@
         <v>2503</v>
       </c>
       <c r="B2505" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2505" t="s">
         <v>2480</v>
@@ -36052,7 +36376,7 @@
         <v>2504</v>
       </c>
       <c r="B2506" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2506" t="s">
         <v>2481</v>
@@ -36063,7 +36387,7 @@
         <v>2505</v>
       </c>
       <c r="B2507" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2507" t="s">
         <v>2482</v>
@@ -36074,7 +36398,7 @@
         <v>2506</v>
       </c>
       <c r="B2508" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2508" t="s">
         <v>2483</v>
@@ -36085,7 +36409,7 @@
         <v>2507</v>
       </c>
       <c r="B2509" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2509" t="s">
         <v>2484</v>
@@ -36096,7 +36420,7 @@
         <v>2508</v>
       </c>
       <c r="B2510" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2510" t="s">
         <v>2485</v>
@@ -36107,7 +36431,7 @@
         <v>2509</v>
       </c>
       <c r="B2511" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2511" t="s">
         <v>2486</v>
@@ -36118,7 +36442,7 @@
         <v>2510</v>
       </c>
       <c r="B2512" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2512" t="s">
         <v>2487</v>
@@ -36129,7 +36453,7 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2513" t="s">
         <v>2488</v>
@@ -36140,7 +36464,7 @@
         <v>2512</v>
       </c>
       <c r="B2514" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2514" t="s">
         <v>2489</v>
@@ -36151,7 +36475,7 @@
         <v>2513</v>
       </c>
       <c r="B2515" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2515" t="s">
         <v>2490</v>
@@ -36162,7 +36486,7 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2516" t="s">
         <v>2491</v>
@@ -36173,7 +36497,7 @@
         <v>2515</v>
       </c>
       <c r="B2517" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2517" t="s">
         <v>2492</v>
@@ -36184,7 +36508,7 @@
         <v>2516</v>
       </c>
       <c r="B2518" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2518" t="s">
         <v>2493</v>
@@ -36195,7 +36519,7 @@
         <v>2517</v>
       </c>
       <c r="B2519" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2519" t="s">
         <v>2494</v>
@@ -36206,7 +36530,7 @@
         <v>2518</v>
       </c>
       <c r="B2520" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2520" t="s">
         <v>2495</v>
@@ -36217,7 +36541,7 @@
         <v>2519</v>
       </c>
       <c r="B2521" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2521" t="s">
         <v>2496</v>
@@ -36228,7 +36552,7 @@
         <v>2520</v>
       </c>
       <c r="B2522" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2522" t="s">
         <v>2497</v>
@@ -36239,7 +36563,7 @@
         <v>2521</v>
       </c>
       <c r="B2523" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2523" t="s">
         <v>2498</v>
@@ -36250,7 +36574,7 @@
         <v>2522</v>
       </c>
       <c r="B2524" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2524" t="s">
         <v>2499</v>
@@ -36261,7 +36585,7 @@
         <v>2523</v>
       </c>
       <c r="B2525" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2525" t="s">
         <v>2500</v>
@@ -36272,7 +36596,7 @@
         <v>2524</v>
       </c>
       <c r="B2526" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2526" t="s">
         <v>2501</v>
@@ -36283,7 +36607,7 @@
         <v>2525</v>
       </c>
       <c r="B2527" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2527" t="s">
         <v>2502</v>
@@ -36294,7 +36618,7 @@
         <v>2526</v>
       </c>
       <c r="B2528" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2528" t="s">
         <v>2503</v>
@@ -36305,7 +36629,7 @@
         <v>2527</v>
       </c>
       <c r="B2529" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2529" t="s">
         <v>2504</v>
@@ -36316,7 +36640,7 @@
         <v>2528</v>
       </c>
       <c r="B2530" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2530" t="s">
         <v>2505</v>
@@ -36327,7 +36651,7 @@
         <v>2529</v>
       </c>
       <c r="B2531" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2531" t="s">
         <v>2506</v>
@@ -36338,7 +36662,7 @@
         <v>2530</v>
       </c>
       <c r="B2532" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2532" t="s">
         <v>2507</v>
@@ -36349,7 +36673,7 @@
         <v>2531</v>
       </c>
       <c r="B2533" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2533" t="s">
         <v>2508</v>
@@ -36360,7 +36684,7 @@
         <v>2532</v>
       </c>
       <c r="B2534" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2534" t="s">
         <v>2509</v>
@@ -36371,7 +36695,7 @@
         <v>2533</v>
       </c>
       <c r="B2535" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2535" t="s">
         <v>2510</v>
@@ -36382,7 +36706,7 @@
         <v>2534</v>
       </c>
       <c r="B2536" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2536" t="s">
         <v>2511</v>
@@ -36393,7 +36717,7 @@
         <v>2535</v>
       </c>
       <c r="B2537" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2537" t="s">
         <v>2512</v>
@@ -36404,7 +36728,7 @@
         <v>2536</v>
       </c>
       <c r="B2538" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2538" t="s">
         <v>2513</v>
@@ -36415,7 +36739,7 @@
         <v>2537</v>
       </c>
       <c r="B2539" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2539" t="s">
         <v>2514</v>
@@ -36426,7 +36750,7 @@
         <v>2538</v>
       </c>
       <c r="B2540" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2540" t="s">
         <v>2515</v>
@@ -36437,7 +36761,7 @@
         <v>2539</v>
       </c>
       <c r="B2541" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2541" t="s">
         <v>2516</v>
@@ -36448,7 +36772,7 @@
         <v>2540</v>
       </c>
       <c r="B2542" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2542" t="s">
         <v>2517</v>
@@ -36459,7 +36783,7 @@
         <v>2541</v>
       </c>
       <c r="B2543" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2543" t="s">
         <v>2518</v>
@@ -36470,7 +36794,7 @@
         <v>2542</v>
       </c>
       <c r="B2544" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2544" t="s">
         <v>2519</v>
@@ -36481,7 +36805,7 @@
         <v>2543</v>
       </c>
       <c r="B2545" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2545" t="s">
         <v>2520</v>
@@ -36492,7 +36816,7 @@
         <v>2544</v>
       </c>
       <c r="B2546" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2546" t="s">
         <v>2521</v>
@@ -36503,7 +36827,7 @@
         <v>2545</v>
       </c>
       <c r="B2547" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2547" t="s">
         <v>2522</v>
@@ -36514,7 +36838,7 @@
         <v>2546</v>
       </c>
       <c r="B2548" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2548" t="s">
         <v>2523</v>
@@ -36525,7 +36849,7 @@
         <v>2547</v>
       </c>
       <c r="B2549" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2549" t="s">
         <v>2524</v>
@@ -36536,7 +36860,7 @@
         <v>2548</v>
       </c>
       <c r="B2550" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2550" t="s">
         <v>2525</v>
@@ -36547,7 +36871,7 @@
         <v>2549</v>
       </c>
       <c r="B2551" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2551" t="s">
         <v>2526</v>
@@ -36558,7 +36882,7 @@
         <v>2550</v>
       </c>
       <c r="B2552" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2552" t="s">
         <v>2527</v>
@@ -36569,7 +36893,7 @@
         <v>2551</v>
       </c>
       <c r="B2553" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2553" t="s">
         <v>2528</v>
@@ -36580,7 +36904,7 @@
         <v>2552</v>
       </c>
       <c r="B2554" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2554" t="s">
         <v>2529</v>
@@ -36591,7 +36915,7 @@
         <v>2553</v>
       </c>
       <c r="B2555" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2555" t="s">
         <v>2530</v>
@@ -36602,7 +36926,7 @@
         <v>2554</v>
       </c>
       <c r="B2556" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2556" t="s">
         <v>2531</v>
@@ -36613,7 +36937,7 @@
         <v>2555</v>
       </c>
       <c r="B2557" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2557" t="s">
         <v>2532</v>
@@ -36624,7 +36948,7 @@
         <v>2556</v>
       </c>
       <c r="B2558" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2558" t="s">
         <v>2533</v>
@@ -36635,7 +36959,7 @@
         <v>2557</v>
       </c>
       <c r="B2559" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2559" t="s">
         <v>2534</v>
@@ -36646,7 +36970,7 @@
         <v>2558</v>
       </c>
       <c r="B2560" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2560" t="s">
         <v>2535</v>
@@ -36657,7 +36981,7 @@
         <v>2559</v>
       </c>
       <c r="B2561" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2561" t="s">
         <v>2536</v>
@@ -36668,7 +36992,7 @@
         <v>2560</v>
       </c>
       <c r="B2562" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2562" t="s">
         <v>2537</v>
@@ -36679,7 +37003,7 @@
         <v>2561</v>
       </c>
       <c r="B2563" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2563" t="s">
         <v>2538</v>
@@ -36690,7 +37014,7 @@
         <v>2562</v>
       </c>
       <c r="B2564" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2564" t="s">
         <v>2539</v>
@@ -36701,7 +37025,7 @@
         <v>2563</v>
       </c>
       <c r="B2565" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2565" t="s">
         <v>2540</v>
@@ -36712,7 +37036,7 @@
         <v>2564</v>
       </c>
       <c r="B2566" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2566" t="s">
         <v>2541</v>
@@ -36723,7 +37047,7 @@
         <v>2565</v>
       </c>
       <c r="B2567" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2567" t="s">
         <v>2542</v>
@@ -36734,7 +37058,7 @@
         <v>2566</v>
       </c>
       <c r="B2568" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2568" t="s">
         <v>2543</v>
@@ -36745,7 +37069,7 @@
         <v>2567</v>
       </c>
       <c r="B2569" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2569" t="s">
         <v>2544</v>
@@ -36756,7 +37080,7 @@
         <v>2568</v>
       </c>
       <c r="B2570" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2570" t="s">
         <v>2545</v>
@@ -36767,7 +37091,7 @@
         <v>2569</v>
       </c>
       <c r="B2571" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2571" t="s">
         <v>2546</v>
@@ -36778,7 +37102,7 @@
         <v>2570</v>
       </c>
       <c r="B2572" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2572" t="s">
         <v>2547</v>
@@ -36789,7 +37113,7 @@
         <v>2571</v>
       </c>
       <c r="B2573" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2573" t="s">
         <v>2548</v>
@@ -36800,7 +37124,7 @@
         <v>2572</v>
       </c>
       <c r="B2574" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2574" t="s">
         <v>2549</v>
@@ -36811,7 +37135,7 @@
         <v>2573</v>
       </c>
       <c r="B2575" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2575" t="s">
         <v>2550</v>
@@ -36822,7 +37146,7 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2576" t="s">
         <v>2551</v>
@@ -36833,7 +37157,7 @@
         <v>2575</v>
       </c>
       <c r="B2577" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2577" t="s">
         <v>2552</v>
@@ -36844,7 +37168,7 @@
         <v>2576</v>
       </c>
       <c r="B2578" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2578" t="s">
         <v>2553</v>
@@ -36855,7 +37179,7 @@
         <v>2577</v>
       </c>
       <c r="B2579" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2579" t="s">
         <v>2554</v>
@@ -36866,7 +37190,7 @@
         <v>2578</v>
       </c>
       <c r="B2580" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2580" t="s">
         <v>2555</v>
@@ -36877,7 +37201,7 @@
         <v>2579</v>
       </c>
       <c r="B2581" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2581" t="s">
         <v>2556</v>
@@ -36888,7 +37212,7 @@
         <v>2580</v>
       </c>
       <c r="B2582" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2582" t="s">
         <v>2557</v>
@@ -36899,7 +37223,7 @@
         <v>2581</v>
       </c>
       <c r="B2583" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2583" t="s">
         <v>2558</v>
@@ -36910,7 +37234,7 @@
         <v>2582</v>
       </c>
       <c r="B2584" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2584" t="s">
         <v>2559</v>
@@ -36921,7 +37245,7 @@
         <v>2583</v>
       </c>
       <c r="B2585" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2585" t="s">
         <v>2560</v>
@@ -36932,7 +37256,7 @@
         <v>2584</v>
       </c>
       <c r="B2586" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2586" t="s">
         <v>2561</v>
@@ -36943,7 +37267,7 @@
         <v>2585</v>
       </c>
       <c r="B2587" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2587" t="s">
         <v>2562</v>
@@ -36954,7 +37278,7 @@
         <v>2586</v>
       </c>
       <c r="B2588" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2588" t="s">
         <v>2563</v>
@@ -36965,7 +37289,7 @@
         <v>2587</v>
       </c>
       <c r="B2589" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2589" t="s">
         <v>2564</v>
@@ -36976,7 +37300,7 @@
         <v>2588</v>
       </c>
       <c r="B2590" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2590" t="s">
         <v>2565</v>
@@ -36987,7 +37311,7 @@
         <v>2589</v>
       </c>
       <c r="B2591" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2591" t="s">
         <v>2566</v>
@@ -36998,7 +37322,7 @@
         <v>2590</v>
       </c>
       <c r="B2592" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2592" t="s">
         <v>2567</v>
@@ -37009,7 +37333,7 @@
         <v>2591</v>
       </c>
       <c r="B2593" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2593" t="s">
         <v>2568</v>
@@ -37020,7 +37344,7 @@
         <v>2592</v>
       </c>
       <c r="B2594" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2594" t="s">
         <v>2569</v>
@@ -37031,7 +37355,7 @@
         <v>2593</v>
       </c>
       <c r="B2595" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2595" t="s">
         <v>2570</v>
@@ -37042,7 +37366,7 @@
         <v>2594</v>
       </c>
       <c r="B2596" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2596" t="s">
         <v>2571</v>
@@ -37053,7 +37377,7 @@
         <v>2595</v>
       </c>
       <c r="B2597" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2597" t="s">
         <v>2572</v>
@@ -37064,7 +37388,7 @@
         <v>2596</v>
       </c>
       <c r="B2598" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2598" t="s">
         <v>2573</v>
@@ -37075,7 +37399,7 @@
         <v>2597</v>
       </c>
       <c r="B2599" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2599" t="s">
         <v>2574</v>
@@ -37086,7 +37410,7 @@
         <v>2598</v>
       </c>
       <c r="B2600" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2600" t="s">
         <v>2575</v>
@@ -37097,7 +37421,7 @@
         <v>2599</v>
       </c>
       <c r="B2601" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2601" t="s">
         <v>2576</v>
@@ -37108,7 +37432,7 @@
         <v>2600</v>
       </c>
       <c r="B2602" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2602" t="s">
         <v>2577</v>
@@ -37119,7 +37443,7 @@
         <v>2601</v>
       </c>
       <c r="B2603" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2603" t="s">
         <v>2578</v>
@@ -37130,7 +37454,7 @@
         <v>2602</v>
       </c>
       <c r="B2604" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2604" t="s">
         <v>2579</v>
@@ -37141,7 +37465,7 @@
         <v>2603</v>
       </c>
       <c r="B2605" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2605" t="s">
         <v>2580</v>
@@ -37152,7 +37476,7 @@
         <v>2604</v>
       </c>
       <c r="B2606" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2606" t="s">
         <v>2581</v>
@@ -37163,7 +37487,7 @@
         <v>2605</v>
       </c>
       <c r="B2607" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2607" t="s">
         <v>2582</v>
@@ -37174,7 +37498,7 @@
         <v>2606</v>
       </c>
       <c r="B2608" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2608" t="s">
         <v>2583</v>
@@ -37185,7 +37509,7 @@
         <v>2607</v>
       </c>
       <c r="B2609" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2609" t="s">
         <v>2584</v>
@@ -37196,7 +37520,7 @@
         <v>2608</v>
       </c>
       <c r="B2610" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2610" t="s">
         <v>2585</v>
@@ -37207,7 +37531,7 @@
         <v>2609</v>
       </c>
       <c r="B2611" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2611" t="s">
         <v>2586</v>
@@ -37218,7 +37542,7 @@
         <v>2610</v>
       </c>
       <c r="B2612" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2612" t="s">
         <v>2587</v>
@@ -37229,7 +37553,7 @@
         <v>2611</v>
       </c>
       <c r="B2613" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2613" t="s">
         <v>2588</v>
@@ -37240,7 +37564,7 @@
         <v>2612</v>
       </c>
       <c r="B2614" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2614" t="s">
         <v>2589</v>
@@ -37251,7 +37575,7 @@
         <v>2613</v>
       </c>
       <c r="B2615" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2615" t="s">
         <v>2590</v>
@@ -37262,7 +37586,7 @@
         <v>2614</v>
       </c>
       <c r="B2616" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2616" t="s">
         <v>2591</v>
@@ -37273,7 +37597,7 @@
         <v>2615</v>
       </c>
       <c r="B2617" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2617" t="s">
         <v>2592</v>
@@ -37284,7 +37608,7 @@
         <v>2616</v>
       </c>
       <c r="B2618" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2618" t="s">
         <v>2593</v>
@@ -37295,7 +37619,7 @@
         <v>2617</v>
       </c>
       <c r="B2619" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2619" t="s">
         <v>2594</v>
@@ -37306,7 +37630,7 @@
         <v>2618</v>
       </c>
       <c r="B2620" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2620" t="s">
         <v>2595</v>
@@ -37317,7 +37641,7 @@
         <v>2619</v>
       </c>
       <c r="B2621" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2621" t="s">
         <v>2596</v>
@@ -37328,7 +37652,7 @@
         <v>2620</v>
       </c>
       <c r="B2622" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2622" t="s">
         <v>2597</v>
@@ -37339,7 +37663,7 @@
         <v>2621</v>
       </c>
       <c r="B2623" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2623" t="s">
         <v>2598</v>
@@ -37350,7 +37674,7 @@
         <v>2622</v>
       </c>
       <c r="B2624" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2624" t="s">
         <v>2599</v>
@@ -37361,7 +37685,7 @@
         <v>2623</v>
       </c>
       <c r="B2625" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2625" t="s">
         <v>2600</v>
@@ -37372,7 +37696,7 @@
         <v>2624</v>
       </c>
       <c r="B2626" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2626" t="s">
         <v>2601</v>
@@ -37383,7 +37707,7 @@
         <v>2625</v>
       </c>
       <c r="B2627" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2627" t="s">
         <v>2602</v>
@@ -37394,7 +37718,7 @@
         <v>2626</v>
       </c>
       <c r="B2628" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2628" t="s">
         <v>2603</v>
@@ -37405,7 +37729,7 @@
         <v>2627</v>
       </c>
       <c r="B2629" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2629" t="s">
         <v>2604</v>
@@ -37416,7 +37740,7 @@
         <v>2628</v>
       </c>
       <c r="B2630" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2630" t="s">
         <v>2605</v>
@@ -37427,7 +37751,7 @@
         <v>2629</v>
       </c>
       <c r="B2631" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2631" t="s">
         <v>2606</v>
@@ -37438,7 +37762,7 @@
         <v>2630</v>
       </c>
       <c r="B2632" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2632" t="s">
         <v>2607</v>
@@ -37449,7 +37773,7 @@
         <v>2631</v>
       </c>
       <c r="B2633" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2633" t="s">
         <v>2608</v>
@@ -37460,7 +37784,7 @@
         <v>2632</v>
       </c>
       <c r="B2634" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2634" t="s">
         <v>2609</v>
@@ -37471,7 +37795,7 @@
         <v>2633</v>
       </c>
       <c r="B2635" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2635" t="s">
         <v>2610</v>
@@ -37482,7 +37806,7 @@
         <v>2634</v>
       </c>
       <c r="B2636" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2636" t="s">
         <v>2611</v>
@@ -37493,7 +37817,7 @@
         <v>2635</v>
       </c>
       <c r="B2637" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2637" t="s">
         <v>2612</v>
@@ -37504,7 +37828,7 @@
         <v>2636</v>
       </c>
       <c r="B2638" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2638" t="s">
         <v>2613</v>
@@ -37515,7 +37839,7 @@
         <v>2637</v>
       </c>
       <c r="B2639" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2639" t="s">
         <v>2614</v>
@@ -37526,7 +37850,7 @@
         <v>2638</v>
       </c>
       <c r="B2640" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2640" t="s">
         <v>2615</v>
@@ -37537,7 +37861,7 @@
         <v>2639</v>
       </c>
       <c r="B2641" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2641" t="s">
         <v>2616</v>
@@ -37548,7 +37872,7 @@
         <v>2640</v>
       </c>
       <c r="B2642" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2642" t="s">
         <v>2617</v>
@@ -37559,7 +37883,7 @@
         <v>2641</v>
       </c>
       <c r="B2643" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2643" t="s">
         <v>2618</v>
@@ -37570,7 +37894,7 @@
         <v>2642</v>
       </c>
       <c r="B2644" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2644" t="s">
         <v>2619</v>
@@ -37581,7 +37905,7 @@
         <v>2643</v>
       </c>
       <c r="B2645" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2645" t="s">
         <v>2620</v>
@@ -37592,7 +37916,7 @@
         <v>2644</v>
       </c>
       <c r="B2646" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2646" t="s">
         <v>2621</v>
@@ -37603,7 +37927,7 @@
         <v>2645</v>
       </c>
       <c r="B2647" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2647" t="s">
         <v>2622</v>
@@ -37614,7 +37938,7 @@
         <v>2646</v>
       </c>
       <c r="B2648" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2648" t="s">
         <v>2623</v>
@@ -37625,7 +37949,7 @@
         <v>2647</v>
       </c>
       <c r="B2649" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2649" t="s">
         <v>2624</v>
@@ -37636,7 +37960,7 @@
         <v>2648</v>
       </c>
       <c r="B2650" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2650" t="s">
         <v>2625</v>
@@ -37647,7 +37971,7 @@
         <v>2649</v>
       </c>
       <c r="B2651" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2651" t="s">
         <v>2626</v>
@@ -37658,7 +37982,7 @@
         <v>2650</v>
       </c>
       <c r="B2652" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2652" t="s">
         <v>2627</v>
@@ -37669,7 +37993,7 @@
         <v>2651</v>
       </c>
       <c r="B2653" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2653" t="s">
         <v>2628</v>
@@ -37680,7 +38004,7 @@
         <v>2652</v>
       </c>
       <c r="B2654" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2654" t="s">
         <v>2629</v>
@@ -37691,7 +38015,7 @@
         <v>2653</v>
       </c>
       <c r="B2655" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2655" t="s">
         <v>2630</v>
@@ -37702,7 +38026,7 @@
         <v>2654</v>
       </c>
       <c r="B2656" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2656" t="s">
         <v>2631</v>
@@ -37713,7 +38037,7 @@
         <v>2655</v>
       </c>
       <c r="B2657" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2657" t="s">
         <v>2632</v>
@@ -37724,7 +38048,7 @@
         <v>2656</v>
       </c>
       <c r="B2658" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2658" t="s">
         <v>2633</v>
@@ -37735,7 +38059,7 @@
         <v>2657</v>
       </c>
       <c r="B2659" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2659" t="s">
         <v>2634</v>
@@ -37746,7 +38070,7 @@
         <v>2658</v>
       </c>
       <c r="B2660" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2660" t="s">
         <v>2635</v>
@@ -37757,7 +38081,7 @@
         <v>2659</v>
       </c>
       <c r="B2661" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2661" t="s">
         <v>2636</v>
@@ -37768,7 +38092,7 @@
         <v>2660</v>
       </c>
       <c r="B2662" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2662" t="s">
         <v>2637</v>
@@ -37779,7 +38103,7 @@
         <v>2661</v>
       </c>
       <c r="B2663" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2663" t="s">
         <v>2638</v>
@@ -37790,7 +38114,7 @@
         <v>2662</v>
       </c>
       <c r="B2664" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2664" t="s">
         <v>2639</v>
@@ -37801,7 +38125,7 @@
         <v>2663</v>
       </c>
       <c r="B2665" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2665" t="s">
         <v>2640</v>
@@ -37812,7 +38136,7 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2666" t="s">
         <v>2641</v>
@@ -37823,7 +38147,7 @@
         <v>2665</v>
       </c>
       <c r="B2667" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2667" t="s">
         <v>2642</v>
@@ -37834,7 +38158,7 @@
         <v>2666</v>
       </c>
       <c r="B2668" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2668" t="s">
         <v>2643</v>
@@ -37845,7 +38169,7 @@
         <v>2667</v>
       </c>
       <c r="B2669" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2669" t="s">
         <v>2644</v>
@@ -37856,7 +38180,7 @@
         <v>2668</v>
       </c>
       <c r="B2670" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2670" t="s">
         <v>2645</v>
@@ -37867,7 +38191,7 @@
         <v>2669</v>
       </c>
       <c r="B2671" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2671" t="s">
         <v>2646</v>
@@ -37878,7 +38202,7 @@
         <v>2670</v>
       </c>
       <c r="B2672" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2672" t="s">
         <v>2647</v>
@@ -37889,7 +38213,7 @@
         <v>2671</v>
       </c>
       <c r="B2673" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2673" t="s">
         <v>2648</v>
@@ -37900,7 +38224,7 @@
         <v>2672</v>
       </c>
       <c r="B2674" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2674" t="s">
         <v>2649</v>
@@ -37911,7 +38235,7 @@
         <v>2673</v>
       </c>
       <c r="B2675" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2675" t="s">
         <v>2650</v>
@@ -37922,7 +38246,7 @@
         <v>2674</v>
       </c>
       <c r="B2676" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2676" t="s">
         <v>2651</v>
@@ -37933,7 +38257,7 @@
         <v>2675</v>
       </c>
       <c r="B2677" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2677" t="s">
         <v>2652</v>
@@ -37944,7 +38268,7 @@
         <v>2676</v>
       </c>
       <c r="B2678" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2678" t="s">
         <v>2653</v>
@@ -37955,7 +38279,7 @@
         <v>2677</v>
       </c>
       <c r="B2679" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2679" t="s">
         <v>2654</v>
@@ -37966,7 +38290,7 @@
         <v>2678</v>
       </c>
       <c r="B2680" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2680" t="s">
         <v>2655</v>
@@ -37977,7 +38301,7 @@
         <v>2679</v>
       </c>
       <c r="B2681" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2681" t="s">
         <v>2656</v>
@@ -37988,7 +38312,7 @@
         <v>2680</v>
       </c>
       <c r="B2682" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2682" t="s">
         <v>2657</v>
@@ -37999,7 +38323,7 @@
         <v>2681</v>
       </c>
       <c r="B2683" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2683" t="s">
         <v>2658</v>
@@ -38010,7 +38334,7 @@
         <v>2682</v>
       </c>
       <c r="B2684" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2684" t="s">
         <v>2659</v>
@@ -38021,7 +38345,7 @@
         <v>2683</v>
       </c>
       <c r="B2685" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2685" t="s">
         <v>2660</v>
@@ -38032,7 +38356,7 @@
         <v>2684</v>
       </c>
       <c r="B2686" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2686" t="s">
         <v>2661</v>
@@ -38043,7 +38367,7 @@
         <v>2685</v>
       </c>
       <c r="B2687" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2687" t="s">
         <v>2662</v>
@@ -38054,7 +38378,7 @@
         <v>2686</v>
       </c>
       <c r="B2688" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2688" t="s">
         <v>2663</v>
@@ -38065,7 +38389,7 @@
         <v>2687</v>
       </c>
       <c r="B2689" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2689" t="s">
         <v>2664</v>
@@ -38076,7 +38400,7 @@
         <v>2688</v>
       </c>
       <c r="B2690" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2690" t="s">
         <v>2665</v>
@@ -38087,7 +38411,7 @@
         <v>2689</v>
       </c>
       <c r="B2691" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2691" t="s">
         <v>2666</v>
@@ -38098,7 +38422,7 @@
         <v>2690</v>
       </c>
       <c r="B2692" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2692" t="s">
         <v>2667</v>
@@ -38109,7 +38433,7 @@
         <v>2691</v>
       </c>
       <c r="B2693" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2693" t="s">
         <v>2668</v>
@@ -38120,7 +38444,7 @@
         <v>2692</v>
       </c>
       <c r="B2694" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2694" t="s">
         <v>2669</v>
@@ -38131,7 +38455,7 @@
         <v>2693</v>
       </c>
       <c r="B2695" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2695" t="s">
         <v>2670</v>
@@ -38142,7 +38466,7 @@
         <v>2694</v>
       </c>
       <c r="B2696" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2696" t="s">
         <v>2671</v>
@@ -38153,7 +38477,7 @@
         <v>2695</v>
       </c>
       <c r="B2697" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2697" t="s">
         <v>2672</v>
@@ -38164,7 +38488,7 @@
         <v>2696</v>
       </c>
       <c r="B2698" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2698" t="s">
         <v>2673</v>
@@ -38175,7 +38499,7 @@
         <v>2697</v>
       </c>
       <c r="B2699" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2699" t="s">
         <v>2674</v>
@@ -38186,7 +38510,7 @@
         <v>2698</v>
       </c>
       <c r="B2700" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2700" t="s">
         <v>2675</v>
@@ -38197,7 +38521,7 @@
         <v>2699</v>
       </c>
       <c r="B2701" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2701" t="s">
         <v>2676</v>
@@ -38208,7 +38532,7 @@
         <v>2700</v>
       </c>
       <c r="B2702" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2702" t="s">
         <v>2677</v>
@@ -38219,7 +38543,7 @@
         <v>2701</v>
       </c>
       <c r="B2703" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2703" t="s">
         <v>2678</v>
@@ -38230,7 +38554,7 @@
         <v>2702</v>
       </c>
       <c r="B2704" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2704" t="s">
         <v>2679</v>
@@ -38241,7 +38565,7 @@
         <v>2703</v>
       </c>
       <c r="B2705" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2705" t="s">
         <v>2680</v>
@@ -38252,7 +38576,7 @@
         <v>2704</v>
       </c>
       <c r="B2706" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2706" t="s">
         <v>2681</v>
@@ -38263,7 +38587,7 @@
         <v>2705</v>
       </c>
       <c r="B2707" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2707" t="s">
         <v>2682</v>
@@ -38274,7 +38598,7 @@
         <v>2706</v>
       </c>
       <c r="B2708" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2708" t="s">
         <v>2683</v>
@@ -38285,7 +38609,7 @@
         <v>2707</v>
       </c>
       <c r="B2709" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2709" t="s">
         <v>2684</v>
@@ -38296,7 +38620,7 @@
         <v>2708</v>
       </c>
       <c r="B2710" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2710" t="s">
         <v>2685</v>
@@ -38307,7 +38631,7 @@
         <v>2709</v>
       </c>
       <c r="B2711" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2711" t="s">
         <v>2686</v>
@@ -38318,7 +38642,7 @@
         <v>2710</v>
       </c>
       <c r="B2712" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2712" t="s">
         <v>2687</v>
@@ -38329,7 +38653,7 @@
         <v>2711</v>
       </c>
       <c r="B2713" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2713" t="s">
         <v>2688</v>
@@ -38340,7 +38664,7 @@
         <v>2712</v>
       </c>
       <c r="B2714" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2714" t="s">
         <v>2689</v>
@@ -38351,7 +38675,7 @@
         <v>2713</v>
       </c>
       <c r="B2715" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2715" t="s">
         <v>2690</v>
@@ -38362,7 +38686,7 @@
         <v>2714</v>
       </c>
       <c r="B2716" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2716" t="s">
         <v>2691</v>
@@ -38373,7 +38697,7 @@
         <v>2715</v>
       </c>
       <c r="B2717" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2717" t="s">
         <v>2692</v>
@@ -38384,7 +38708,7 @@
         <v>2716</v>
       </c>
       <c r="B2718" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2718" t="s">
         <v>2693</v>
@@ -38395,7 +38719,7 @@
         <v>2717</v>
       </c>
       <c r="B2719" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2719" t="s">
         <v>2694</v>
@@ -38406,7 +38730,7 @@
         <v>2718</v>
       </c>
       <c r="B2720" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2720" t="s">
         <v>2695</v>
@@ -38417,7 +38741,7 @@
         <v>2719</v>
       </c>
       <c r="B2721" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2721" t="s">
         <v>2696</v>
@@ -38428,7 +38752,7 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2722" t="s">
         <v>2697</v>
@@ -38439,7 +38763,7 @@
         <v>2721</v>
       </c>
       <c r="B2723" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2723" t="s">
         <v>2698</v>
@@ -38450,7 +38774,7 @@
         <v>2722</v>
       </c>
       <c r="B2724" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2724" t="s">
         <v>2699</v>
@@ -38461,7 +38785,7 @@
         <v>2723</v>
       </c>
       <c r="B2725" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2725" t="s">
         <v>2700</v>
@@ -38472,7 +38796,7 @@
         <v>2724</v>
       </c>
       <c r="B2726" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2726" t="s">
         <v>2701</v>
@@ -38483,7 +38807,7 @@
         <v>2725</v>
       </c>
       <c r="B2727" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2727" t="s">
         <v>2702</v>
@@ -38494,7 +38818,7 @@
         <v>2726</v>
       </c>
       <c r="B2728" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2728" t="s">
         <v>2703</v>
@@ -38505,7 +38829,7 @@
         <v>2727</v>
       </c>
       <c r="B2729" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2729" t="s">
         <v>2704</v>
@@ -38516,10 +38840,1198 @@
         <v>2728</v>
       </c>
       <c r="B2730" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2730" t="s">
         <v>2705</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="1">
+        <v>2729</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2731" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="1">
+        <v>2730</v>
+      </c>
+      <c r="B2732" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2732" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="1">
+        <v>2731</v>
+      </c>
+      <c r="B2733" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="1">
+        <v>2732</v>
+      </c>
+      <c r="B2734" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2734" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="1">
+        <v>2733</v>
+      </c>
+      <c r="B2735" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2735" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="1">
+        <v>2734</v>
+      </c>
+      <c r="B2736" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2736" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="1">
+        <v>2735</v>
+      </c>
+      <c r="B2737" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2737" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="1">
+        <v>2736</v>
+      </c>
+      <c r="B2738" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2738" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="1">
+        <v>2737</v>
+      </c>
+      <c r="B2739" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2739" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="1">
+        <v>2738</v>
+      </c>
+      <c r="B2740" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2740" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="1">
+        <v>2739</v>
+      </c>
+      <c r="B2741" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2741" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="1">
+        <v>2740</v>
+      </c>
+      <c r="B2742" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="1">
+        <v>2741</v>
+      </c>
+      <c r="B2743" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="1">
+        <v>2742</v>
+      </c>
+      <c r="B2744" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2744" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="1">
+        <v>2743</v>
+      </c>
+      <c r="B2745" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2745" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="1">
+        <v>2744</v>
+      </c>
+      <c r="B2746" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2746" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="1">
+        <v>2745</v>
+      </c>
+      <c r="B2747" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2747" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="1">
+        <v>2746</v>
+      </c>
+      <c r="B2748" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2748" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="1">
+        <v>2747</v>
+      </c>
+      <c r="B2749" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2749" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="1">
+        <v>2748</v>
+      </c>
+      <c r="B2750" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2750" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="1">
+        <v>2749</v>
+      </c>
+      <c r="B2751" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2751" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B2752" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2752" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="1">
+        <v>2751</v>
+      </c>
+      <c r="B2753" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2753" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="1">
+        <v>2752</v>
+      </c>
+      <c r="B2754" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2754" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="1">
+        <v>2753</v>
+      </c>
+      <c r="B2755" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2755" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="1">
+        <v>2754</v>
+      </c>
+      <c r="B2756" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2756" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="1">
+        <v>2755</v>
+      </c>
+      <c r="B2757" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2757" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="1">
+        <v>2756</v>
+      </c>
+      <c r="B2758" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="1">
+        <v>2757</v>
+      </c>
+      <c r="B2759" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2759" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="1">
+        <v>2758</v>
+      </c>
+      <c r="B2760" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2760" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="1">
+        <v>2759</v>
+      </c>
+      <c r="B2761" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2761" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="1">
+        <v>2760</v>
+      </c>
+      <c r="B2762" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2762" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="1">
+        <v>2761</v>
+      </c>
+      <c r="B2763" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2763" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="1">
+        <v>2762</v>
+      </c>
+      <c r="B2764" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2764" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="1">
+        <v>2763</v>
+      </c>
+      <c r="B2765" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2765" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="1">
+        <v>2764</v>
+      </c>
+      <c r="B2766" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2766" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="1">
+        <v>2765</v>
+      </c>
+      <c r="B2767" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2767" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="1">
+        <v>2766</v>
+      </c>
+      <c r="B2768" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2768" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="1">
+        <v>2767</v>
+      </c>
+      <c r="B2769" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="1">
+        <v>2768</v>
+      </c>
+      <c r="B2770" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2770" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="1">
+        <v>2769</v>
+      </c>
+      <c r="B2771" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="1">
+        <v>2770</v>
+      </c>
+      <c r="B2772" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="1">
+        <v>2771</v>
+      </c>
+      <c r="B2773" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2773" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="1">
+        <v>2772</v>
+      </c>
+      <c r="B2774" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2774" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="1">
+        <v>2773</v>
+      </c>
+      <c r="B2775" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2775" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="1">
+        <v>2774</v>
+      </c>
+      <c r="B2776" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="1">
+        <v>2775</v>
+      </c>
+      <c r="B2777" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2777" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="1">
+        <v>2776</v>
+      </c>
+      <c r="B2778" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2778" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="1">
+        <v>2777</v>
+      </c>
+      <c r="B2779" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="1">
+        <v>2778</v>
+      </c>
+      <c r="B2780" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2780" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="1">
+        <v>2779</v>
+      </c>
+      <c r="B2781" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2781" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="1">
+        <v>2780</v>
+      </c>
+      <c r="B2782" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="1">
+        <v>2781</v>
+      </c>
+      <c r="B2783" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2783" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="1">
+        <v>2782</v>
+      </c>
+      <c r="B2784" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2784" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" s="1">
+        <v>2783</v>
+      </c>
+      <c r="B2785" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2785" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:3">
+      <c r="A2786" s="1">
+        <v>2784</v>
+      </c>
+      <c r="B2786" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:3">
+      <c r="A2787" s="1">
+        <v>2785</v>
+      </c>
+      <c r="B2787" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2787" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:3">
+      <c r="A2788" s="1">
+        <v>2786</v>
+      </c>
+      <c r="B2788" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2788" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:3">
+      <c r="A2789" s="1">
+        <v>2787</v>
+      </c>
+      <c r="B2789" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:3">
+      <c r="A2790" s="1">
+        <v>2788</v>
+      </c>
+      <c r="B2790" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2790" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:3">
+      <c r="A2791" s="1">
+        <v>2789</v>
+      </c>
+      <c r="B2791" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2791" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:3">
+      <c r="A2792" s="1">
+        <v>2790</v>
+      </c>
+      <c r="B2792" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2792" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:3">
+      <c r="A2793" s="1">
+        <v>2791</v>
+      </c>
+      <c r="B2793" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:3">
+      <c r="A2794" s="1">
+        <v>2792</v>
+      </c>
+      <c r="B2794" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2794" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:3">
+      <c r="A2795" s="1">
+        <v>2793</v>
+      </c>
+      <c r="B2795" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2795" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:3">
+      <c r="A2796" s="1">
+        <v>2794</v>
+      </c>
+      <c r="B2796" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2796" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:3">
+      <c r="A2797" s="1">
+        <v>2795</v>
+      </c>
+      <c r="B2797" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2797" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:3">
+      <c r="A2798" s="1">
+        <v>2796</v>
+      </c>
+      <c r="B2798" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2798" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:3">
+      <c r="A2799" s="1">
+        <v>2797</v>
+      </c>
+      <c r="B2799" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:3">
+      <c r="A2800" s="1">
+        <v>2798</v>
+      </c>
+      <c r="B2800" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2800" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:3">
+      <c r="A2801" s="1">
+        <v>2799</v>
+      </c>
+      <c r="B2801" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2801" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:3">
+      <c r="A2802" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B2802" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2802" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:3">
+      <c r="A2803" s="1">
+        <v>2801</v>
+      </c>
+      <c r="B2803" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2803" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:3">
+      <c r="A2804" s="1">
+        <v>2802</v>
+      </c>
+      <c r="B2804" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2804" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:3">
+      <c r="A2805" s="1">
+        <v>2803</v>
+      </c>
+      <c r="B2805" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:3">
+      <c r="A2806" s="1">
+        <v>2804</v>
+      </c>
+      <c r="B2806" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2806" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:3">
+      <c r="A2807" s="1">
+        <v>2805</v>
+      </c>
+      <c r="B2807" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2807" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:3">
+      <c r="A2808" s="1">
+        <v>2806</v>
+      </c>
+      <c r="B2808" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2808" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:3">
+      <c r="A2809" s="1">
+        <v>2807</v>
+      </c>
+      <c r="B2809" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2809" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:3">
+      <c r="A2810" s="1">
+        <v>2808</v>
+      </c>
+      <c r="B2810" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2810" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:3">
+      <c r="A2811" s="1">
+        <v>2809</v>
+      </c>
+      <c r="B2811" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:3">
+      <c r="A2812" s="1">
+        <v>2810</v>
+      </c>
+      <c r="B2812" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2812" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:3">
+      <c r="A2813" s="1">
+        <v>2811</v>
+      </c>
+      <c r="B2813" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2813" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:3">
+      <c r="A2814" s="1">
+        <v>2812</v>
+      </c>
+      <c r="B2814" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:3">
+      <c r="A2815" s="1">
+        <v>2813</v>
+      </c>
+      <c r="B2815" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2815" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:3">
+      <c r="A2816" s="1">
+        <v>2814</v>
+      </c>
+      <c r="B2816" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2816" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:3">
+      <c r="A2817" s="1">
+        <v>2815</v>
+      </c>
+      <c r="B2817" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2817" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:3">
+      <c r="A2818" s="1">
+        <v>2816</v>
+      </c>
+      <c r="B2818" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:3">
+      <c r="A2819" s="1">
+        <v>2817</v>
+      </c>
+      <c r="B2819" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2819" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:3">
+      <c r="A2820" s="1">
+        <v>2818</v>
+      </c>
+      <c r="B2820" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2820" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:3">
+      <c r="A2821" s="1">
+        <v>2819</v>
+      </c>
+      <c r="B2821" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2821" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:3">
+      <c r="A2822" s="1">
+        <v>2820</v>
+      </c>
+      <c r="B2822" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2822" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:3">
+      <c r="A2823" s="1">
+        <v>2821</v>
+      </c>
+      <c r="B2823" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2823" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:3">
+      <c r="A2824" s="1">
+        <v>2822</v>
+      </c>
+      <c r="B2824" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2824" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:3">
+      <c r="A2825" s="1">
+        <v>2823</v>
+      </c>
+      <c r="B2825" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:3">
+      <c r="A2826" s="1">
+        <v>2824</v>
+      </c>
+      <c r="B2826" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:3">
+      <c r="A2827" s="1">
+        <v>2825</v>
+      </c>
+      <c r="B2827" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2827" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:3">
+      <c r="A2828" s="1">
+        <v>2826</v>
+      </c>
+      <c r="B2828" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2828" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:3">
+      <c r="A2829" s="1">
+        <v>2827</v>
+      </c>
+      <c r="B2829" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2829" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:3">
+      <c r="A2830" s="1">
+        <v>2828</v>
+      </c>
+      <c r="B2830" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2830" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:3">
+      <c r="A2831" s="1">
+        <v>2829</v>
+      </c>
+      <c r="B2831" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:3">
+      <c r="A2832" s="1">
+        <v>2830</v>
+      </c>
+      <c r="B2832" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2832" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:3">
+      <c r="A2833" s="1">
+        <v>2831</v>
+      </c>
+      <c r="B2833" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2833" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:3">
+      <c r="A2834" s="1">
+        <v>2832</v>
+      </c>
+      <c r="B2834" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2834" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:3">
+      <c r="A2835" s="1">
+        <v>2833</v>
+      </c>
+      <c r="B2835" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:3">
+      <c r="A2836" s="1">
+        <v>2834</v>
+      </c>
+      <c r="B2836" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2836" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:3">
+      <c r="A2837" s="1">
+        <v>2835</v>
+      </c>
+      <c r="B2837" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2837" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:3">
+      <c r="A2838" s="1">
+        <v>2836</v>
+      </c>
+      <c r="B2838" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2838" t="s">
+        <v>2813</v>
       </c>
     </row>
   </sheetData>

--- a/KaryotypingPinnacle/CNN/theWholeSampleID.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeSampleID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="2814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="2945">
   <si>
     <t>Chromosome</t>
   </si>
@@ -6823,6 +6823,339 @@
     <t>193067-_Y_9.bmp</t>
   </si>
   <si>
+    <t>194161-Y_del(18)(p11)-1.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-10.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-11.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-12.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-13.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-14.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-15.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-17.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-18.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-19.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-2.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-20.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-21.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-22.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-23.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-24.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-25.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-27.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-28.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-29.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-30.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-4.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-5.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-6.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-7.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-8.bmp</t>
+  </si>
+  <si>
+    <t>194161-Y_del(18)(p11)-9.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_1.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_10.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_11.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_12.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_13.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_14.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_15.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_16.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_17.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_18.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_19.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_2.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_20.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_21.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_3.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_4.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_5.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_6.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_7.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_8.bmp</t>
+  </si>
+  <si>
+    <t>W07391-_Y_9.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_1.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_10.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_12.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_13.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_14.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_15.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_16.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_18.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_19.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_2.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_20.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_22.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_3.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_4.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_5.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_6.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_7.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_8.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_9.bmp</t>
+  </si>
+  <si>
+    <t>W12813-Y_9_k.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_10.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_11.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_12.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_13.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_14.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_15.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_16.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_4.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_5.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_6.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_7.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_8.bmp</t>
+  </si>
+  <si>
+    <t>W15206-Y_9.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_1.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_17.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_18.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_19.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_2.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_20.bmp</t>
+  </si>
+  <si>
+    <t>W15206-_Y_3.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_1.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_10.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_12.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_13.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_14.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_15.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_16.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_17.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_18.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_19.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_2.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_20.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_21.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_22.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_23.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_3.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_4.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_5.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_6.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_7.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_8.bmp</t>
+  </si>
+  <si>
+    <t>W18776-Y_9.bmp</t>
+  </si>
+  <si>
+    <t>W18776-_Y_17.bmp</t>
+  </si>
+  <si>
     <t>w21001~A.0008.K.jpg.y.bmp</t>
   </si>
   <si>
@@ -6908,6 +7241,66 @@
   </si>
   <si>
     <t>W23084~A.0003.K.jp.Y.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0001.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0003.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0004.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0006.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0007.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0010.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0011.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0014.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0015.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0019.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0020.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0021.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0022.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0023.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0024.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0031.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0033.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0041.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0044.bmp</t>
+  </si>
+  <si>
+    <t>W23713_Y_A.0049.bmp</t>
   </si>
   <si>
     <t>183873-del(18)(p11)-10R.bmp</t>
@@ -8813,7 +9206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2838"/>
+  <dimension ref="A1:C2969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34055,7 +34448,7 @@
         <v>2293</v>
       </c>
       <c r="B2295" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2295" t="s">
         <v>2298</v>
@@ -34066,7 +34459,7 @@
         <v>2294</v>
       </c>
       <c r="B2296" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2296" t="s">
         <v>2299</v>
@@ -34077,7 +34470,7 @@
         <v>2295</v>
       </c>
       <c r="B2297" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2297" t="s">
         <v>2300</v>
@@ -34088,7 +34481,7 @@
         <v>2296</v>
       </c>
       <c r="B2298" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2298" t="s">
         <v>2301</v>
@@ -34099,7 +34492,7 @@
         <v>2297</v>
       </c>
       <c r="B2299" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2299" t="s">
         <v>2302</v>
@@ -34110,7 +34503,7 @@
         <v>2298</v>
       </c>
       <c r="B2300" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2300" t="s">
         <v>2303</v>
@@ -34121,7 +34514,7 @@
         <v>2299</v>
       </c>
       <c r="B2301" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2301" t="s">
         <v>2304</v>
@@ -34132,7 +34525,7 @@
         <v>2300</v>
       </c>
       <c r="B2302" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2302" t="s">
         <v>2305</v>
@@ -34143,7 +34536,7 @@
         <v>2301</v>
       </c>
       <c r="B2303" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2303" t="s">
         <v>2306</v>
@@ -34154,7 +34547,7 @@
         <v>2302</v>
       </c>
       <c r="B2304" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2304" t="s">
         <v>2307</v>
@@ -34165,7 +34558,7 @@
         <v>2303</v>
       </c>
       <c r="B2305" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2305" t="s">
         <v>2308</v>
@@ -34176,7 +34569,7 @@
         <v>2304</v>
       </c>
       <c r="B2306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2306" t="s">
         <v>2309</v>
@@ -34187,7 +34580,7 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2307" t="s">
         <v>2310</v>
@@ -34198,7 +34591,7 @@
         <v>2306</v>
       </c>
       <c r="B2308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2308" t="s">
         <v>2311</v>
@@ -34209,7 +34602,7 @@
         <v>2307</v>
       </c>
       <c r="B2309" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2309" t="s">
         <v>2312</v>
@@ -34220,7 +34613,7 @@
         <v>2308</v>
       </c>
       <c r="B2310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2310" t="s">
         <v>2313</v>
@@ -34231,7 +34624,7 @@
         <v>2309</v>
       </c>
       <c r="B2311" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2311" t="s">
         <v>2314</v>
@@ -34242,7 +34635,7 @@
         <v>2310</v>
       </c>
       <c r="B2312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2312" t="s">
         <v>2315</v>
@@ -34253,7 +34646,7 @@
         <v>2311</v>
       </c>
       <c r="B2313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2313" t="s">
         <v>2316</v>
@@ -34264,7 +34657,7 @@
         <v>2312</v>
       </c>
       <c r="B2314" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2314" t="s">
         <v>2317</v>
@@ -34275,7 +34668,7 @@
         <v>2313</v>
       </c>
       <c r="B2315" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2315" t="s">
         <v>2318</v>
@@ -34286,7 +34679,7 @@
         <v>2314</v>
       </c>
       <c r="B2316" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2316" t="s">
         <v>2319</v>
@@ -34297,7 +34690,7 @@
         <v>2315</v>
       </c>
       <c r="B2317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2317" t="s">
         <v>2320</v>
@@ -34308,7 +34701,7 @@
         <v>2316</v>
       </c>
       <c r="B2318" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2318" t="s">
         <v>2321</v>
@@ -34319,7 +34712,7 @@
         <v>2317</v>
       </c>
       <c r="B2319" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2319" t="s">
         <v>2322</v>
@@ -34330,7 +34723,7 @@
         <v>2318</v>
       </c>
       <c r="B2320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2320" t="s">
         <v>2323</v>
@@ -34341,7 +34734,7 @@
         <v>2319</v>
       </c>
       <c r="B2321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2321" t="s">
         <v>2324</v>
@@ -34352,7 +34745,7 @@
         <v>2320</v>
       </c>
       <c r="B2322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2322" t="s">
         <v>2325</v>
@@ -34363,7 +34756,7 @@
         <v>2321</v>
       </c>
       <c r="B2323" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2323" t="s">
         <v>2326</v>
@@ -34374,7 +34767,7 @@
         <v>2322</v>
       </c>
       <c r="B2324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2324" t="s">
         <v>2327</v>
@@ -34385,7 +34778,7 @@
         <v>2323</v>
       </c>
       <c r="B2325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2325" t="s">
         <v>2328</v>
@@ -34396,7 +34789,7 @@
         <v>2324</v>
       </c>
       <c r="B2326" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2326" t="s">
         <v>2329</v>
@@ -34407,7 +34800,7 @@
         <v>2325</v>
       </c>
       <c r="B2327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2327" t="s">
         <v>2330</v>
@@ -34418,7 +34811,7 @@
         <v>2326</v>
       </c>
       <c r="B2328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2328" t="s">
         <v>2331</v>
@@ -34429,7 +34822,7 @@
         <v>2327</v>
       </c>
       <c r="B2329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2329" t="s">
         <v>2332</v>
@@ -34440,7 +34833,7 @@
         <v>2328</v>
       </c>
       <c r="B2330" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2330" t="s">
         <v>2333</v>
@@ -34451,7 +34844,7 @@
         <v>2329</v>
       </c>
       <c r="B2331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2331" t="s">
         <v>2334</v>
@@ -34462,7 +34855,7 @@
         <v>2330</v>
       </c>
       <c r="B2332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2332" t="s">
         <v>2335</v>
@@ -34473,7 +34866,7 @@
         <v>2331</v>
       </c>
       <c r="B2333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2333" t="s">
         <v>2336</v>
@@ -34484,7 +34877,7 @@
         <v>2332</v>
       </c>
       <c r="B2334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2334" t="s">
         <v>2337</v>
@@ -34495,7 +34888,7 @@
         <v>2333</v>
       </c>
       <c r="B2335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2335" t="s">
         <v>2338</v>
@@ -34506,7 +34899,7 @@
         <v>2334</v>
       </c>
       <c r="B2336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2336" t="s">
         <v>2339</v>
@@ -34517,7 +34910,7 @@
         <v>2335</v>
       </c>
       <c r="B2337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2337" t="s">
         <v>2340</v>
@@ -34528,7 +34921,7 @@
         <v>2336</v>
       </c>
       <c r="B2338" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2338" t="s">
         <v>2341</v>
@@ -34539,7 +34932,7 @@
         <v>2337</v>
       </c>
       <c r="B2339" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2339" t="s">
         <v>2342</v>
@@ -34550,10 +34943,10 @@
         <v>2338</v>
       </c>
       <c r="B2340" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2340" t="s">
-        <v>370</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -34561,10 +34954,10 @@
         <v>2339</v>
       </c>
       <c r="B2341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2341" t="s">
-        <v>372</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -34572,10 +34965,10 @@
         <v>2340</v>
       </c>
       <c r="B2342" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2342" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -34583,10 +34976,10 @@
         <v>2341</v>
       </c>
       <c r="B2343" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2343" t="s">
-        <v>374</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -34594,10 +34987,10 @@
         <v>2342</v>
       </c>
       <c r="B2344" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2344" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -34605,10 +34998,10 @@
         <v>2343</v>
       </c>
       <c r="B2345" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2345" t="s">
-        <v>376</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -34616,10 +35009,10 @@
         <v>2344</v>
       </c>
       <c r="B2346" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2346" t="s">
-        <v>378</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -34627,10 +35020,10 @@
         <v>2345</v>
       </c>
       <c r="B2347" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2347" t="s">
-        <v>380</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -34638,10 +35031,10 @@
         <v>2346</v>
       </c>
       <c r="B2348" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2348" t="s">
-        <v>382</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -34649,10 +35042,10 @@
         <v>2347</v>
       </c>
       <c r="B2349" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2349" t="s">
-        <v>384</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -34660,10 +35053,10 @@
         <v>2348</v>
       </c>
       <c r="B2350" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2350" t="s">
-        <v>386</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -34671,10 +35064,10 @@
         <v>2349</v>
       </c>
       <c r="B2351" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2351" t="s">
-        <v>388</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -34682,10 +35075,10 @@
         <v>2350</v>
       </c>
       <c r="B2352" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2352" t="s">
-        <v>390</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -34693,10 +35086,10 @@
         <v>2351</v>
       </c>
       <c r="B2353" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2353" t="s">
-        <v>392</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -34704,10 +35097,10 @@
         <v>2352</v>
       </c>
       <c r="B2354" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2354" t="s">
-        <v>394</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -34715,10 +35108,10 @@
         <v>2353</v>
       </c>
       <c r="B2355" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2355" t="s">
-        <v>396</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -34726,10 +35119,10 @@
         <v>2354</v>
       </c>
       <c r="B2356" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2356" t="s">
-        <v>397</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -34737,10 +35130,10 @@
         <v>2355</v>
       </c>
       <c r="B2357" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2357" t="s">
-        <v>399</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -34748,10 +35141,10 @@
         <v>2356</v>
       </c>
       <c r="B2358" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2358" t="s">
-        <v>401</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -34759,10 +35152,10 @@
         <v>2357</v>
       </c>
       <c r="B2359" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2359" t="s">
-        <v>403</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -34770,10 +35163,10 @@
         <v>2358</v>
       </c>
       <c r="B2360" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2360" t="s">
-        <v>405</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -34781,10 +35174,10 @@
         <v>2359</v>
       </c>
       <c r="B2361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2361" t="s">
-        <v>407</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -34792,10 +35185,10 @@
         <v>2360</v>
       </c>
       <c r="B2362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2362" t="s">
-        <v>409</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -34803,10 +35196,10 @@
         <v>2361</v>
       </c>
       <c r="B2363" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2363" t="s">
-        <v>411</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -34814,10 +35207,10 @@
         <v>2362</v>
       </c>
       <c r="B2364" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2364" t="s">
-        <v>413</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -34825,10 +35218,10 @@
         <v>2363</v>
       </c>
       <c r="B2365" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2365" t="s">
-        <v>415</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -34836,10 +35229,10 @@
         <v>2364</v>
       </c>
       <c r="B2366" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2366" t="s">
-        <v>417</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -34847,10 +35240,10 @@
         <v>2365</v>
       </c>
       <c r="B2367" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2367" t="s">
-        <v>419</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -34858,10 +35251,10 @@
         <v>2366</v>
       </c>
       <c r="B2368" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2368" t="s">
-        <v>421</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -34869,10 +35262,10 @@
         <v>2367</v>
       </c>
       <c r="B2369" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2369" t="s">
-        <v>423</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -34880,10 +35273,10 @@
         <v>2368</v>
       </c>
       <c r="B2370" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2370" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -34891,10 +35284,10 @@
         <v>2369</v>
       </c>
       <c r="B2371" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2371" t="s">
-        <v>2346</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -34902,10 +35295,10 @@
         <v>2370</v>
       </c>
       <c r="B2372" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2372" t="s">
-        <v>2347</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -34913,10 +35306,10 @@
         <v>2371</v>
       </c>
       <c r="B2373" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2373" t="s">
-        <v>2348</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -34924,10 +35317,10 @@
         <v>2372</v>
       </c>
       <c r="B2374" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2374" t="s">
-        <v>2349</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
@@ -34935,10 +35328,10 @@
         <v>2373</v>
       </c>
       <c r="B2375" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2375" t="s">
-        <v>2350</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -34946,10 +35339,10 @@
         <v>2374</v>
       </c>
       <c r="B2376" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2376" t="s">
-        <v>2351</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -34957,10 +35350,10 @@
         <v>2375</v>
       </c>
       <c r="B2377" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2377" t="s">
-        <v>2352</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -34968,10 +35361,10 @@
         <v>2376</v>
       </c>
       <c r="B2378" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2378" t="s">
-        <v>2353</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -34979,10 +35372,10 @@
         <v>2377</v>
       </c>
       <c r="B2379" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2379" t="s">
-        <v>2354</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -34990,10 +35383,10 @@
         <v>2378</v>
       </c>
       <c r="B2380" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2380" t="s">
-        <v>2355</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -35001,10 +35394,10 @@
         <v>2379</v>
       </c>
       <c r="B2381" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2381" t="s">
-        <v>2356</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -35012,10 +35405,10 @@
         <v>2380</v>
       </c>
       <c r="B2382" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2382" t="s">
-        <v>2357</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -35023,10 +35416,10 @@
         <v>2381</v>
       </c>
       <c r="B2383" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2383" t="s">
-        <v>2358</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -35034,10 +35427,10 @@
         <v>2382</v>
       </c>
       <c r="B2384" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2384" t="s">
-        <v>2359</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -35045,10 +35438,10 @@
         <v>2383</v>
       </c>
       <c r="B2385" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2385" t="s">
-        <v>2360</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -35056,10 +35449,10 @@
         <v>2384</v>
       </c>
       <c r="B2386" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2386" t="s">
-        <v>2361</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -35067,10 +35460,10 @@
         <v>2385</v>
       </c>
       <c r="B2387" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2387" t="s">
-        <v>2362</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -35078,10 +35471,10 @@
         <v>2386</v>
       </c>
       <c r="B2388" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2388" t="s">
-        <v>2363</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -35089,10 +35482,10 @@
         <v>2387</v>
       </c>
       <c r="B2389" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2389" t="s">
-        <v>2364</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -35100,10 +35493,10 @@
         <v>2388</v>
       </c>
       <c r="B2390" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2390" t="s">
-        <v>2365</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -35111,10 +35504,10 @@
         <v>2389</v>
       </c>
       <c r="B2391" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2391" t="s">
-        <v>2366</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -35122,10 +35515,10 @@
         <v>2390</v>
       </c>
       <c r="B2392" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2392" t="s">
-        <v>2367</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -35133,10 +35526,10 @@
         <v>2391</v>
       </c>
       <c r="B2393" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2393" t="s">
-        <v>2368</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -35144,10 +35537,10 @@
         <v>2392</v>
       </c>
       <c r="B2394" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2394" t="s">
-        <v>2369</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -35155,10 +35548,10 @@
         <v>2393</v>
       </c>
       <c r="B2395" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2395" t="s">
-        <v>2370</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -35166,10 +35559,10 @@
         <v>2394</v>
       </c>
       <c r="B2396" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2396" t="s">
-        <v>2371</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -35177,10 +35570,10 @@
         <v>2395</v>
       </c>
       <c r="B2397" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2397" t="s">
-        <v>2372</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -35188,10 +35581,10 @@
         <v>2396</v>
       </c>
       <c r="B2398" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2398" t="s">
-        <v>2373</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -35199,10 +35592,10 @@
         <v>2397</v>
       </c>
       <c r="B2399" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2399" t="s">
-        <v>2374</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -35210,10 +35603,10 @@
         <v>2398</v>
       </c>
       <c r="B2400" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2400" t="s">
-        <v>2375</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -35221,10 +35614,10 @@
         <v>2399</v>
       </c>
       <c r="B2401" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2401" t="s">
-        <v>2376</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -35232,10 +35625,10 @@
         <v>2400</v>
       </c>
       <c r="B2402" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2402" t="s">
-        <v>2377</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -35243,10 +35636,10 @@
         <v>2401</v>
       </c>
       <c r="B2403" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2403" t="s">
-        <v>2378</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -35254,10 +35647,10 @@
         <v>2402</v>
       </c>
       <c r="B2404" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2404" t="s">
-        <v>2379</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -35265,10 +35658,10 @@
         <v>2403</v>
       </c>
       <c r="B2405" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2405" t="s">
-        <v>2380</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -35276,10 +35669,10 @@
         <v>2404</v>
       </c>
       <c r="B2406" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2406" t="s">
-        <v>2381</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -35287,10 +35680,10 @@
         <v>2405</v>
       </c>
       <c r="B2407" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2407" t="s">
-        <v>2382</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -35298,10 +35691,10 @@
         <v>2406</v>
       </c>
       <c r="B2408" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2408" t="s">
-        <v>2383</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -35309,10 +35702,10 @@
         <v>2407</v>
       </c>
       <c r="B2409" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2409" t="s">
-        <v>2384</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -35320,10 +35713,10 @@
         <v>2408</v>
       </c>
       <c r="B2410" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2410" t="s">
-        <v>2385</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -35331,10 +35724,10 @@
         <v>2409</v>
       </c>
       <c r="B2411" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2411" t="s">
-        <v>2386</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -35342,10 +35735,10 @@
         <v>2410</v>
       </c>
       <c r="B2412" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2412" t="s">
-        <v>2387</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -35353,10 +35746,10 @@
         <v>2411</v>
       </c>
       <c r="B2413" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2413" t="s">
-        <v>2388</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -35364,10 +35757,10 @@
         <v>2412</v>
       </c>
       <c r="B2414" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2414" t="s">
-        <v>2389</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -35375,10 +35768,10 @@
         <v>2413</v>
       </c>
       <c r="B2415" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2415" t="s">
-        <v>2390</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -35386,10 +35779,10 @@
         <v>2414</v>
       </c>
       <c r="B2416" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2416" t="s">
-        <v>2391</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -35397,10 +35790,10 @@
         <v>2415</v>
       </c>
       <c r="B2417" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2417" t="s">
-        <v>2392</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -35408,10 +35801,10 @@
         <v>2416</v>
       </c>
       <c r="B2418" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2418" t="s">
-        <v>2393</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -35419,10 +35812,10 @@
         <v>2417</v>
       </c>
       <c r="B2419" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2419" t="s">
-        <v>2394</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -35430,10 +35823,10 @@
         <v>2418</v>
       </c>
       <c r="B2420" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2420" t="s">
-        <v>2395</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -35441,10 +35834,10 @@
         <v>2419</v>
       </c>
       <c r="B2421" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2421" t="s">
-        <v>2396</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -35452,10 +35845,10 @@
         <v>2420</v>
       </c>
       <c r="B2422" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2422" t="s">
-        <v>2397</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -35463,10 +35856,10 @@
         <v>2421</v>
       </c>
       <c r="B2423" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2423" t="s">
-        <v>2398</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -35474,10 +35867,10 @@
         <v>2422</v>
       </c>
       <c r="B2424" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2424" t="s">
-        <v>2399</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -35485,10 +35878,10 @@
         <v>2423</v>
       </c>
       <c r="B2425" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2425" t="s">
-        <v>2400</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -35496,10 +35889,10 @@
         <v>2424</v>
       </c>
       <c r="B2426" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2426" t="s">
-        <v>2401</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -35507,10 +35900,10 @@
         <v>2425</v>
       </c>
       <c r="B2427" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2427" t="s">
-        <v>2402</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -35518,10 +35911,10 @@
         <v>2426</v>
       </c>
       <c r="B2428" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2428" t="s">
-        <v>2403</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -35529,10 +35922,10 @@
         <v>2427</v>
       </c>
       <c r="B2429" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2429" t="s">
-        <v>2404</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -35540,10 +35933,10 @@
         <v>2428</v>
       </c>
       <c r="B2430" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2430" t="s">
-        <v>2405</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -35551,10 +35944,10 @@
         <v>2429</v>
       </c>
       <c r="B2431" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2431" t="s">
-        <v>2406</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -35562,10 +35955,10 @@
         <v>2430</v>
       </c>
       <c r="B2432" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2432" t="s">
-        <v>2407</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -35573,10 +35966,10 @@
         <v>2431</v>
       </c>
       <c r="B2433" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2433" t="s">
-        <v>2408</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -35584,10 +35977,10 @@
         <v>2432</v>
       </c>
       <c r="B2434" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2434" t="s">
-        <v>2409</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -35595,10 +35988,10 @@
         <v>2433</v>
       </c>
       <c r="B2435" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2435" t="s">
-        <v>2410</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -35606,10 +35999,10 @@
         <v>2434</v>
       </c>
       <c r="B2436" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2436" t="s">
-        <v>2411</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -35617,10 +36010,10 @@
         <v>2435</v>
       </c>
       <c r="B2437" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2437" t="s">
-        <v>2412</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -35628,10 +36021,10 @@
         <v>2436</v>
       </c>
       <c r="B2438" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2438" t="s">
-        <v>2413</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -35639,10 +36032,10 @@
         <v>2437</v>
       </c>
       <c r="B2439" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2439" t="s">
-        <v>2414</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -35650,10 +36043,10 @@
         <v>2438</v>
       </c>
       <c r="B2440" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2440" t="s">
-        <v>2415</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -35661,10 +36054,10 @@
         <v>2439</v>
       </c>
       <c r="B2441" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2441" t="s">
-        <v>2416</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -35672,10 +36065,10 @@
         <v>2440</v>
       </c>
       <c r="B2442" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2442" t="s">
-        <v>2417</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -35683,10 +36076,10 @@
         <v>2441</v>
       </c>
       <c r="B2443" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2443" t="s">
-        <v>2418</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -35694,10 +36087,10 @@
         <v>2442</v>
       </c>
       <c r="B2444" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2444" t="s">
-        <v>2419</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -35705,10 +36098,10 @@
         <v>2443</v>
       </c>
       <c r="B2445" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2445" t="s">
-        <v>2420</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -35716,10 +36109,10 @@
         <v>2444</v>
       </c>
       <c r="B2446" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2446" t="s">
-        <v>2421</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -35727,10 +36120,10 @@
         <v>2445</v>
       </c>
       <c r="B2447" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2447" t="s">
-        <v>2422</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -35738,10 +36131,10 @@
         <v>2446</v>
       </c>
       <c r="B2448" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2448" t="s">
-        <v>2423</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -35749,10 +36142,10 @@
         <v>2447</v>
       </c>
       <c r="B2449" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2449" t="s">
-        <v>2424</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -35760,10 +36153,10 @@
         <v>2448</v>
       </c>
       <c r="B2450" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2450" t="s">
-        <v>2425</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -35771,10 +36164,10 @@
         <v>2449</v>
       </c>
       <c r="B2451" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2451" t="s">
-        <v>2426</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -35782,10 +36175,10 @@
         <v>2450</v>
       </c>
       <c r="B2452" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2452" t="s">
-        <v>2427</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -35793,10 +36186,10 @@
         <v>2451</v>
       </c>
       <c r="B2453" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2453" t="s">
-        <v>2428</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -35804,10 +36197,10 @@
         <v>2452</v>
       </c>
       <c r="B2454" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2454" t="s">
-        <v>2429</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -35815,10 +36208,10 @@
         <v>2453</v>
       </c>
       <c r="B2455" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2455" t="s">
-        <v>2430</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -35826,10 +36219,10 @@
         <v>2454</v>
       </c>
       <c r="B2456" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2456" t="s">
-        <v>2431</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
@@ -35837,10 +36230,10 @@
         <v>2455</v>
       </c>
       <c r="B2457" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2457" t="s">
-        <v>2432</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -35848,10 +36241,10 @@
         <v>2456</v>
       </c>
       <c r="B2458" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2458" t="s">
-        <v>2433</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -35859,10 +36252,10 @@
         <v>2457</v>
       </c>
       <c r="B2459" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2459" t="s">
-        <v>2434</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -35870,10 +36263,10 @@
         <v>2458</v>
       </c>
       <c r="B2460" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2460" t="s">
-        <v>2435</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -35881,10 +36274,10 @@
         <v>2459</v>
       </c>
       <c r="B2461" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2461" t="s">
-        <v>2436</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -35892,10 +36285,10 @@
         <v>2460</v>
       </c>
       <c r="B2462" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2462" t="s">
-        <v>2437</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -35903,10 +36296,10 @@
         <v>2461</v>
       </c>
       <c r="B2463" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2463" t="s">
-        <v>2438</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -35914,10 +36307,10 @@
         <v>2462</v>
       </c>
       <c r="B2464" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2464" t="s">
-        <v>2439</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -35925,10 +36318,10 @@
         <v>2463</v>
       </c>
       <c r="B2465" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2465" t="s">
-        <v>2440</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -35936,10 +36329,10 @@
         <v>2464</v>
       </c>
       <c r="B2466" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2466" t="s">
-        <v>2441</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -35947,10 +36340,10 @@
         <v>2465</v>
       </c>
       <c r="B2467" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2467" t="s">
-        <v>2442</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -35958,10 +36351,10 @@
         <v>2466</v>
       </c>
       <c r="B2468" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2468" t="s">
-        <v>2443</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -35969,10 +36362,10 @@
         <v>2467</v>
       </c>
       <c r="B2469" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2469" t="s">
-        <v>2444</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -35980,10 +36373,10 @@
         <v>2468</v>
       </c>
       <c r="B2470" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2470" t="s">
-        <v>2445</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -35991,10 +36384,10 @@
         <v>2469</v>
       </c>
       <c r="B2471" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2471" t="s">
-        <v>2446</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -36002,10 +36395,10 @@
         <v>2470</v>
       </c>
       <c r="B2472" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2472" t="s">
-        <v>2447</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -36013,10 +36406,10 @@
         <v>2471</v>
       </c>
       <c r="B2473" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2473" t="s">
-        <v>2448</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -36024,10 +36417,10 @@
         <v>2472</v>
       </c>
       <c r="B2474" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2474" t="s">
-        <v>2449</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -36035,10 +36428,10 @@
         <v>2473</v>
       </c>
       <c r="B2475" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2475" t="s">
-        <v>2450</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -36046,10 +36439,10 @@
         <v>2474</v>
       </c>
       <c r="B2476" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2476" t="s">
-        <v>2451</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -36057,10 +36450,10 @@
         <v>2475</v>
       </c>
       <c r="B2477" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2477" t="s">
-        <v>2452</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -36068,10 +36461,10 @@
         <v>2476</v>
       </c>
       <c r="B2478" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2478" t="s">
-        <v>2453</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -36079,10 +36472,10 @@
         <v>2477</v>
       </c>
       <c r="B2479" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2479" t="s">
-        <v>2454</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -36090,10 +36483,10 @@
         <v>2478</v>
       </c>
       <c r="B2480" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2480" t="s">
-        <v>2455</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -36101,10 +36494,10 @@
         <v>2479</v>
       </c>
       <c r="B2481" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2481" t="s">
-        <v>2456</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -36112,10 +36505,10 @@
         <v>2480</v>
       </c>
       <c r="B2482" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2482" t="s">
-        <v>2457</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -36123,10 +36516,10 @@
         <v>2481</v>
       </c>
       <c r="B2483" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2483" t="s">
-        <v>2458</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -36134,10 +36527,10 @@
         <v>2482</v>
       </c>
       <c r="B2484" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2484" t="s">
-        <v>2459</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -36145,10 +36538,10 @@
         <v>2483</v>
       </c>
       <c r="B2485" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2485" t="s">
-        <v>2460</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -36156,10 +36549,10 @@
         <v>2484</v>
       </c>
       <c r="B2486" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2486" t="s">
-        <v>2461</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -36167,10 +36560,10 @@
         <v>2485</v>
       </c>
       <c r="B2487" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2487" t="s">
-        <v>2462</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
@@ -36178,10 +36571,10 @@
         <v>2486</v>
       </c>
       <c r="B2488" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2488" t="s">
-        <v>2463</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
@@ -36189,10 +36582,10 @@
         <v>2487</v>
       </c>
       <c r="B2489" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2489" t="s">
-        <v>2464</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -36200,10 +36593,10 @@
         <v>2488</v>
       </c>
       <c r="B2490" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2490" t="s">
-        <v>2465</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -36211,10 +36604,10 @@
         <v>2489</v>
       </c>
       <c r="B2491" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2491" t="s">
-        <v>2466</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -36222,10 +36615,10 @@
         <v>2490</v>
       </c>
       <c r="B2492" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2492" t="s">
-        <v>2467</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
@@ -36233,10 +36626,10 @@
         <v>2491</v>
       </c>
       <c r="B2493" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2493" t="s">
-        <v>2468</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -36244,10 +36637,10 @@
         <v>2492</v>
       </c>
       <c r="B2494" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2494" t="s">
-        <v>2469</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -36255,10 +36648,10 @@
         <v>2493</v>
       </c>
       <c r="B2495" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2495" t="s">
-        <v>2470</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -36266,10 +36659,10 @@
         <v>2494</v>
       </c>
       <c r="B2496" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2496" t="s">
-        <v>2471</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -36277,10 +36670,10 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2497" t="s">
-        <v>2472</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -36288,10 +36681,10 @@
         <v>2496</v>
       </c>
       <c r="B2498" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2498" t="s">
-        <v>2473</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -36299,10 +36692,10 @@
         <v>2497</v>
       </c>
       <c r="B2499" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2499" t="s">
-        <v>2474</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -36310,10 +36703,10 @@
         <v>2498</v>
       </c>
       <c r="B2500" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2500" t="s">
-        <v>2475</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -36321,7 +36714,7 @@
         <v>2499</v>
       </c>
       <c r="B2501" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2501" t="s">
         <v>2476</v>
@@ -36332,7 +36725,7 @@
         <v>2500</v>
       </c>
       <c r="B2502" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2502" t="s">
         <v>2477</v>
@@ -36343,7 +36736,7 @@
         <v>2501</v>
       </c>
       <c r="B2503" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2503" t="s">
         <v>2478</v>
@@ -36354,7 +36747,7 @@
         <v>2502</v>
       </c>
       <c r="B2504" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2504" t="s">
         <v>2479</v>
@@ -36365,7 +36758,7 @@
         <v>2503</v>
       </c>
       <c r="B2505" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2505" t="s">
         <v>2480</v>
@@ -36376,7 +36769,7 @@
         <v>2504</v>
       </c>
       <c r="B2506" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2506" t="s">
         <v>2481</v>
@@ -36387,7 +36780,7 @@
         <v>2505</v>
       </c>
       <c r="B2507" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2507" t="s">
         <v>2482</v>
@@ -36398,7 +36791,7 @@
         <v>2506</v>
       </c>
       <c r="B2508" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2508" t="s">
         <v>2483</v>
@@ -36409,7 +36802,7 @@
         <v>2507</v>
       </c>
       <c r="B2509" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2509" t="s">
         <v>2484</v>
@@ -36420,7 +36813,7 @@
         <v>2508</v>
       </c>
       <c r="B2510" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2510" t="s">
         <v>2485</v>
@@ -36431,7 +36824,7 @@
         <v>2509</v>
       </c>
       <c r="B2511" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2511" t="s">
         <v>2486</v>
@@ -36442,7 +36835,7 @@
         <v>2510</v>
       </c>
       <c r="B2512" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2512" t="s">
         <v>2487</v>
@@ -36453,7 +36846,7 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2513" t="s">
         <v>2488</v>
@@ -36464,7 +36857,7 @@
         <v>2512</v>
       </c>
       <c r="B2514" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2514" t="s">
         <v>2489</v>
@@ -36475,7 +36868,7 @@
         <v>2513</v>
       </c>
       <c r="B2515" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2515" t="s">
         <v>2490</v>
@@ -36486,7 +36879,7 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2516" t="s">
         <v>2491</v>
@@ -36497,7 +36890,7 @@
         <v>2515</v>
       </c>
       <c r="B2517" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2517" t="s">
         <v>2492</v>
@@ -36508,7 +36901,7 @@
         <v>2516</v>
       </c>
       <c r="B2518" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2518" t="s">
         <v>2493</v>
@@ -36519,7 +36912,7 @@
         <v>2517</v>
       </c>
       <c r="B2519" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2519" t="s">
         <v>2494</v>
@@ -36530,7 +36923,7 @@
         <v>2518</v>
       </c>
       <c r="B2520" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2520" t="s">
         <v>2495</v>
@@ -36541,7 +36934,7 @@
         <v>2519</v>
       </c>
       <c r="B2521" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2521" t="s">
         <v>2496</v>
@@ -36552,7 +36945,7 @@
         <v>2520</v>
       </c>
       <c r="B2522" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2522" t="s">
         <v>2497</v>
@@ -36563,7 +36956,7 @@
         <v>2521</v>
       </c>
       <c r="B2523" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2523" t="s">
         <v>2498</v>
@@ -36574,7 +36967,7 @@
         <v>2522</v>
       </c>
       <c r="B2524" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2524" t="s">
         <v>2499</v>
@@ -36585,7 +36978,7 @@
         <v>2523</v>
       </c>
       <c r="B2525" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2525" t="s">
         <v>2500</v>
@@ -36596,7 +36989,7 @@
         <v>2524</v>
       </c>
       <c r="B2526" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2526" t="s">
         <v>2501</v>
@@ -36607,7 +37000,7 @@
         <v>2525</v>
       </c>
       <c r="B2527" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2527" t="s">
         <v>2502</v>
@@ -36618,7 +37011,7 @@
         <v>2526</v>
       </c>
       <c r="B2528" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2528" t="s">
         <v>2503</v>
@@ -36629,7 +37022,7 @@
         <v>2527</v>
       </c>
       <c r="B2529" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2529" t="s">
         <v>2504</v>
@@ -36640,7 +37033,7 @@
         <v>2528</v>
       </c>
       <c r="B2530" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2530" t="s">
         <v>2505</v>
@@ -36651,7 +37044,7 @@
         <v>2529</v>
       </c>
       <c r="B2531" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2531" t="s">
         <v>2506</v>
@@ -37124,7 +37517,7 @@
         <v>2572</v>
       </c>
       <c r="B2574" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2574" t="s">
         <v>2549</v>
@@ -37135,7 +37528,7 @@
         <v>2573</v>
       </c>
       <c r="B2575" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2575" t="s">
         <v>2550</v>
@@ -37146,7 +37539,7 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2576" t="s">
         <v>2551</v>
@@ -37157,7 +37550,7 @@
         <v>2575</v>
       </c>
       <c r="B2577" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2577" t="s">
         <v>2552</v>
@@ -37168,7 +37561,7 @@
         <v>2576</v>
       </c>
       <c r="B2578" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2578" t="s">
         <v>2553</v>
@@ -37179,7 +37572,7 @@
         <v>2577</v>
       </c>
       <c r="B2579" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2579" t="s">
         <v>2554</v>
@@ -37190,7 +37583,7 @@
         <v>2578</v>
       </c>
       <c r="B2580" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2580" t="s">
         <v>2555</v>
@@ -37201,7 +37594,7 @@
         <v>2579</v>
       </c>
       <c r="B2581" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2581" t="s">
         <v>2556</v>
@@ -37212,7 +37605,7 @@
         <v>2580</v>
       </c>
       <c r="B2582" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2582" t="s">
         <v>2557</v>
@@ -37223,7 +37616,7 @@
         <v>2581</v>
       </c>
       <c r="B2583" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2583" t="s">
         <v>2558</v>
@@ -37234,7 +37627,7 @@
         <v>2582</v>
       </c>
       <c r="B2584" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2584" t="s">
         <v>2559</v>
@@ -37245,7 +37638,7 @@
         <v>2583</v>
       </c>
       <c r="B2585" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2585" t="s">
         <v>2560</v>
@@ -37256,7 +37649,7 @@
         <v>2584</v>
       </c>
       <c r="B2586" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2586" t="s">
         <v>2561</v>
@@ -37267,7 +37660,7 @@
         <v>2585</v>
       </c>
       <c r="B2587" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2587" t="s">
         <v>2562</v>
@@ -37278,7 +37671,7 @@
         <v>2586</v>
       </c>
       <c r="B2588" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2588" t="s">
         <v>2563</v>
@@ -37289,7 +37682,7 @@
         <v>2587</v>
       </c>
       <c r="B2589" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2589" t="s">
         <v>2564</v>
@@ -37300,7 +37693,7 @@
         <v>2588</v>
       </c>
       <c r="B2590" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2590" t="s">
         <v>2565</v>
@@ -37311,7 +37704,7 @@
         <v>2589</v>
       </c>
       <c r="B2591" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2591" t="s">
         <v>2566</v>
@@ -37322,7 +37715,7 @@
         <v>2590</v>
       </c>
       <c r="B2592" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2592" t="s">
         <v>2567</v>
@@ -37333,7 +37726,7 @@
         <v>2591</v>
       </c>
       <c r="B2593" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2593" t="s">
         <v>2568</v>
@@ -37344,7 +37737,7 @@
         <v>2592</v>
       </c>
       <c r="B2594" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2594" t="s">
         <v>2569</v>
@@ -37355,7 +37748,7 @@
         <v>2593</v>
       </c>
       <c r="B2595" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2595" t="s">
         <v>2570</v>
@@ -37366,7 +37759,7 @@
         <v>2594</v>
       </c>
       <c r="B2596" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2596" t="s">
         <v>2571</v>
@@ -37377,7 +37770,7 @@
         <v>2595</v>
       </c>
       <c r="B2597" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2597" t="s">
         <v>2572</v>
@@ -37388,7 +37781,7 @@
         <v>2596</v>
       </c>
       <c r="B2598" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2598" t="s">
         <v>2573</v>
@@ -37399,7 +37792,7 @@
         <v>2597</v>
       </c>
       <c r="B2599" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2599" t="s">
         <v>2574</v>
@@ -37410,7 +37803,7 @@
         <v>2598</v>
       </c>
       <c r="B2600" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2600" t="s">
         <v>2575</v>
@@ -37421,7 +37814,7 @@
         <v>2599</v>
       </c>
       <c r="B2601" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2601" t="s">
         <v>2576</v>
@@ -37432,7 +37825,7 @@
         <v>2600</v>
       </c>
       <c r="B2602" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2602" t="s">
         <v>2577</v>
@@ -37443,7 +37836,7 @@
         <v>2601</v>
       </c>
       <c r="B2603" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2603" t="s">
         <v>2578</v>
@@ -37454,7 +37847,7 @@
         <v>2602</v>
       </c>
       <c r="B2604" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2604" t="s">
         <v>2579</v>
@@ -37465,7 +37858,7 @@
         <v>2603</v>
       </c>
       <c r="B2605" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2605" t="s">
         <v>2580</v>
@@ -37476,7 +37869,7 @@
         <v>2604</v>
       </c>
       <c r="B2606" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2606" t="s">
         <v>2581</v>
@@ -37487,7 +37880,7 @@
         <v>2605</v>
       </c>
       <c r="B2607" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2607" t="s">
         <v>2582</v>
@@ -37498,7 +37891,7 @@
         <v>2606</v>
       </c>
       <c r="B2608" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2608" t="s">
         <v>2583</v>
@@ -37509,7 +37902,7 @@
         <v>2607</v>
       </c>
       <c r="B2609" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2609" t="s">
         <v>2584</v>
@@ -37520,7 +37913,7 @@
         <v>2608</v>
       </c>
       <c r="B2610" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2610" t="s">
         <v>2585</v>
@@ -37531,7 +37924,7 @@
         <v>2609</v>
       </c>
       <c r="B2611" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2611" t="s">
         <v>2586</v>
@@ -37542,7 +37935,7 @@
         <v>2610</v>
       </c>
       <c r="B2612" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2612" t="s">
         <v>2587</v>
@@ -37553,7 +37946,7 @@
         <v>2611</v>
       </c>
       <c r="B2613" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2613" t="s">
         <v>2588</v>
@@ -37564,7 +37957,7 @@
         <v>2612</v>
       </c>
       <c r="B2614" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2614" t="s">
         <v>2589</v>
@@ -37575,7 +37968,7 @@
         <v>2613</v>
       </c>
       <c r="B2615" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2615" t="s">
         <v>2590</v>
@@ -37586,7 +37979,7 @@
         <v>2614</v>
       </c>
       <c r="B2616" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2616" t="s">
         <v>2591</v>
@@ -37597,7 +37990,7 @@
         <v>2615</v>
       </c>
       <c r="B2617" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2617" t="s">
         <v>2592</v>
@@ -37608,7 +38001,7 @@
         <v>2616</v>
       </c>
       <c r="B2618" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2618" t="s">
         <v>2593</v>
@@ -37619,7 +38012,7 @@
         <v>2617</v>
       </c>
       <c r="B2619" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2619" t="s">
         <v>2594</v>
@@ -37630,7 +38023,7 @@
         <v>2618</v>
       </c>
       <c r="B2620" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2620" t="s">
         <v>2595</v>
@@ -37641,7 +38034,7 @@
         <v>2619</v>
       </c>
       <c r="B2621" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2621" t="s">
         <v>2596</v>
@@ -37652,7 +38045,7 @@
         <v>2620</v>
       </c>
       <c r="B2622" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2622" t="s">
         <v>2597</v>
@@ -37663,7 +38056,7 @@
         <v>2621</v>
       </c>
       <c r="B2623" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2623" t="s">
         <v>2598</v>
@@ -37674,7 +38067,7 @@
         <v>2622</v>
       </c>
       <c r="B2624" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2624" t="s">
         <v>2599</v>
@@ -37685,7 +38078,7 @@
         <v>2623</v>
       </c>
       <c r="B2625" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2625" t="s">
         <v>2600</v>
@@ -37696,7 +38089,7 @@
         <v>2624</v>
       </c>
       <c r="B2626" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2626" t="s">
         <v>2601</v>
@@ -37707,7 +38100,7 @@
         <v>2625</v>
       </c>
       <c r="B2627" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2627" t="s">
         <v>2602</v>
@@ -37718,7 +38111,7 @@
         <v>2626</v>
       </c>
       <c r="B2628" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2628" t="s">
         <v>2603</v>
@@ -37729,7 +38122,7 @@
         <v>2627</v>
       </c>
       <c r="B2629" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2629" t="s">
         <v>2604</v>
@@ -37740,7 +38133,7 @@
         <v>2628</v>
       </c>
       <c r="B2630" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2630" t="s">
         <v>2605</v>
@@ -37751,7 +38144,7 @@
         <v>2629</v>
       </c>
       <c r="B2631" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2631" t="s">
         <v>2606</v>
@@ -37762,7 +38155,7 @@
         <v>2630</v>
       </c>
       <c r="B2632" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2632" t="s">
         <v>2607</v>
@@ -37773,7 +38166,7 @@
         <v>2631</v>
       </c>
       <c r="B2633" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2633" t="s">
         <v>2608</v>
@@ -37784,7 +38177,7 @@
         <v>2632</v>
       </c>
       <c r="B2634" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2634" t="s">
         <v>2609</v>
@@ -37795,7 +38188,7 @@
         <v>2633</v>
       </c>
       <c r="B2635" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2635" t="s">
         <v>2610</v>
@@ -37806,7 +38199,7 @@
         <v>2634</v>
       </c>
       <c r="B2636" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2636" t="s">
         <v>2611</v>
@@ -37817,7 +38210,7 @@
         <v>2635</v>
       </c>
       <c r="B2637" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2637" t="s">
         <v>2612</v>
@@ -37828,7 +38221,7 @@
         <v>2636</v>
       </c>
       <c r="B2638" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2638" t="s">
         <v>2613</v>
@@ -37839,7 +38232,7 @@
         <v>2637</v>
       </c>
       <c r="B2639" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2639" t="s">
         <v>2614</v>
@@ -37850,7 +38243,7 @@
         <v>2638</v>
       </c>
       <c r="B2640" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2640" t="s">
         <v>2615</v>
@@ -37861,7 +38254,7 @@
         <v>2639</v>
       </c>
       <c r="B2641" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2641" t="s">
         <v>2616</v>
@@ -37872,7 +38265,7 @@
         <v>2640</v>
       </c>
       <c r="B2642" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2642" t="s">
         <v>2617</v>
@@ -37883,7 +38276,7 @@
         <v>2641</v>
       </c>
       <c r="B2643" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2643" t="s">
         <v>2618</v>
@@ -37894,7 +38287,7 @@
         <v>2642</v>
       </c>
       <c r="B2644" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2644" t="s">
         <v>2619</v>
@@ -37905,7 +38298,7 @@
         <v>2643</v>
       </c>
       <c r="B2645" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2645" t="s">
         <v>2620</v>
@@ -37916,7 +38309,7 @@
         <v>2644</v>
       </c>
       <c r="B2646" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2646" t="s">
         <v>2621</v>
@@ -37927,7 +38320,7 @@
         <v>2645</v>
       </c>
       <c r="B2647" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2647" t="s">
         <v>2622</v>
@@ -37938,7 +38331,7 @@
         <v>2646</v>
       </c>
       <c r="B2648" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2648" t="s">
         <v>2623</v>
@@ -37949,7 +38342,7 @@
         <v>2647</v>
       </c>
       <c r="B2649" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2649" t="s">
         <v>2624</v>
@@ -37960,7 +38353,7 @@
         <v>2648</v>
       </c>
       <c r="B2650" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2650" t="s">
         <v>2625</v>
@@ -37971,7 +38364,7 @@
         <v>2649</v>
       </c>
       <c r="B2651" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2651" t="s">
         <v>2626</v>
@@ -37982,7 +38375,7 @@
         <v>2650</v>
       </c>
       <c r="B2652" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2652" t="s">
         <v>2627</v>
@@ -37993,7 +38386,7 @@
         <v>2651</v>
       </c>
       <c r="B2653" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2653" t="s">
         <v>2628</v>
@@ -38004,7 +38397,7 @@
         <v>2652</v>
       </c>
       <c r="B2654" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2654" t="s">
         <v>2629</v>
@@ -38015,7 +38408,7 @@
         <v>2653</v>
       </c>
       <c r="B2655" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2655" t="s">
         <v>2630</v>
@@ -38026,7 +38419,7 @@
         <v>2654</v>
       </c>
       <c r="B2656" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2656" t="s">
         <v>2631</v>
@@ -38037,7 +38430,7 @@
         <v>2655</v>
       </c>
       <c r="B2657" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2657" t="s">
         <v>2632</v>
@@ -38048,7 +38441,7 @@
         <v>2656</v>
       </c>
       <c r="B2658" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2658" t="s">
         <v>2633</v>
@@ -38059,7 +38452,7 @@
         <v>2657</v>
       </c>
       <c r="B2659" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2659" t="s">
         <v>2634</v>
@@ -38070,7 +38463,7 @@
         <v>2658</v>
       </c>
       <c r="B2660" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2660" t="s">
         <v>2635</v>
@@ -38081,7 +38474,7 @@
         <v>2659</v>
       </c>
       <c r="B2661" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2661" t="s">
         <v>2636</v>
@@ -38092,7 +38485,7 @@
         <v>2660</v>
       </c>
       <c r="B2662" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2662" t="s">
         <v>2637</v>
@@ -38103,7 +38496,7 @@
         <v>2661</v>
       </c>
       <c r="B2663" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2663" t="s">
         <v>2638</v>
@@ -38114,7 +38507,7 @@
         <v>2662</v>
       </c>
       <c r="B2664" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2664" t="s">
         <v>2639</v>
@@ -38125,7 +38518,7 @@
         <v>2663</v>
       </c>
       <c r="B2665" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2665" t="s">
         <v>2640</v>
@@ -38136,7 +38529,7 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2666" t="s">
         <v>2641</v>
@@ -38147,7 +38540,7 @@
         <v>2665</v>
       </c>
       <c r="B2667" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2667" t="s">
         <v>2642</v>
@@ -38158,7 +38551,7 @@
         <v>2666</v>
       </c>
       <c r="B2668" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2668" t="s">
         <v>2643</v>
@@ -38169,7 +38562,7 @@
         <v>2667</v>
       </c>
       <c r="B2669" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2669" t="s">
         <v>2644</v>
@@ -38180,7 +38573,7 @@
         <v>2668</v>
       </c>
       <c r="B2670" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2670" t="s">
         <v>2645</v>
@@ -38191,7 +38584,7 @@
         <v>2669</v>
       </c>
       <c r="B2671" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2671" t="s">
         <v>2646</v>
@@ -38202,7 +38595,7 @@
         <v>2670</v>
       </c>
       <c r="B2672" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2672" t="s">
         <v>2647</v>
@@ -38213,7 +38606,7 @@
         <v>2671</v>
       </c>
       <c r="B2673" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2673" t="s">
         <v>2648</v>
@@ -38224,7 +38617,7 @@
         <v>2672</v>
       </c>
       <c r="B2674" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2674" t="s">
         <v>2649</v>
@@ -38235,7 +38628,7 @@
         <v>2673</v>
       </c>
       <c r="B2675" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2675" t="s">
         <v>2650</v>
@@ -38246,7 +38639,7 @@
         <v>2674</v>
       </c>
       <c r="B2676" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2676" t="s">
         <v>2651</v>
@@ -38257,7 +38650,7 @@
         <v>2675</v>
       </c>
       <c r="B2677" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2677" t="s">
         <v>2652</v>
@@ -38268,7 +38661,7 @@
         <v>2676</v>
       </c>
       <c r="B2678" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2678" t="s">
         <v>2653</v>
@@ -38279,7 +38672,7 @@
         <v>2677</v>
       </c>
       <c r="B2679" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2679" t="s">
         <v>2654</v>
@@ -38290,7 +38683,7 @@
         <v>2678</v>
       </c>
       <c r="B2680" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2680" t="s">
         <v>2655</v>
@@ -38301,7 +38694,7 @@
         <v>2679</v>
       </c>
       <c r="B2681" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2681" t="s">
         <v>2656</v>
@@ -38312,7 +38705,7 @@
         <v>2680</v>
       </c>
       <c r="B2682" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2682" t="s">
         <v>2657</v>
@@ -38323,7 +38716,7 @@
         <v>2681</v>
       </c>
       <c r="B2683" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2683" t="s">
         <v>2658</v>
@@ -38334,7 +38727,7 @@
         <v>2682</v>
       </c>
       <c r="B2684" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2684" t="s">
         <v>2659</v>
@@ -38345,7 +38738,7 @@
         <v>2683</v>
       </c>
       <c r="B2685" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2685" t="s">
         <v>2660</v>
@@ -38356,7 +38749,7 @@
         <v>2684</v>
       </c>
       <c r="B2686" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2686" t="s">
         <v>2661</v>
@@ -38367,7 +38760,7 @@
         <v>2685</v>
       </c>
       <c r="B2687" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2687" t="s">
         <v>2662</v>
@@ -38378,7 +38771,7 @@
         <v>2686</v>
       </c>
       <c r="B2688" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2688" t="s">
         <v>2663</v>
@@ -38389,7 +38782,7 @@
         <v>2687</v>
       </c>
       <c r="B2689" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2689" t="s">
         <v>2664</v>
@@ -38400,7 +38793,7 @@
         <v>2688</v>
       </c>
       <c r="B2690" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2690" t="s">
         <v>2665</v>
@@ -38411,7 +38804,7 @@
         <v>2689</v>
       </c>
       <c r="B2691" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2691" t="s">
         <v>2666</v>
@@ -38422,7 +38815,7 @@
         <v>2690</v>
       </c>
       <c r="B2692" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2692" t="s">
         <v>2667</v>
@@ -38433,7 +38826,7 @@
         <v>2691</v>
       </c>
       <c r="B2693" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2693" t="s">
         <v>2668</v>
@@ -38444,7 +38837,7 @@
         <v>2692</v>
       </c>
       <c r="B2694" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2694" t="s">
         <v>2669</v>
@@ -38455,7 +38848,7 @@
         <v>2693</v>
       </c>
       <c r="B2695" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2695" t="s">
         <v>2670</v>
@@ -38466,7 +38859,7 @@
         <v>2694</v>
       </c>
       <c r="B2696" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2696" t="s">
         <v>2671</v>
@@ -38477,7 +38870,7 @@
         <v>2695</v>
       </c>
       <c r="B2697" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2697" t="s">
         <v>2672</v>
@@ -38488,7 +38881,7 @@
         <v>2696</v>
       </c>
       <c r="B2698" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2698" t="s">
         <v>2673</v>
@@ -38499,7 +38892,7 @@
         <v>2697</v>
       </c>
       <c r="B2699" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2699" t="s">
         <v>2674</v>
@@ -38510,7 +38903,7 @@
         <v>2698</v>
       </c>
       <c r="B2700" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2700" t="s">
         <v>2675</v>
@@ -38521,7 +38914,7 @@
         <v>2699</v>
       </c>
       <c r="B2701" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2701" t="s">
         <v>2676</v>
@@ -38532,7 +38925,7 @@
         <v>2700</v>
       </c>
       <c r="B2702" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2702" t="s">
         <v>2677</v>
@@ -38543,7 +38936,7 @@
         <v>2701</v>
       </c>
       <c r="B2703" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2703" t="s">
         <v>2678</v>
@@ -38554,7 +38947,7 @@
         <v>2702</v>
       </c>
       <c r="B2704" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2704" t="s">
         <v>2679</v>
@@ -38565,7 +38958,7 @@
         <v>2703</v>
       </c>
       <c r="B2705" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2705" t="s">
         <v>2680</v>
@@ -38576,7 +38969,7 @@
         <v>2704</v>
       </c>
       <c r="B2706" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2706" t="s">
         <v>2681</v>
@@ -38587,7 +38980,7 @@
         <v>2705</v>
       </c>
       <c r="B2707" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2707" t="s">
         <v>2682</v>
@@ -38598,7 +38991,7 @@
         <v>2706</v>
       </c>
       <c r="B2708" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2708" t="s">
         <v>2683</v>
@@ -38609,7 +39002,7 @@
         <v>2707</v>
       </c>
       <c r="B2709" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2709" t="s">
         <v>2684</v>
@@ -38620,7 +39013,7 @@
         <v>2708</v>
       </c>
       <c r="B2710" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2710" t="s">
         <v>2685</v>
@@ -38631,7 +39024,7 @@
         <v>2709</v>
       </c>
       <c r="B2711" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2711" t="s">
         <v>2686</v>
@@ -38642,7 +39035,7 @@
         <v>2710</v>
       </c>
       <c r="B2712" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2712" t="s">
         <v>2687</v>
@@ -38653,7 +39046,7 @@
         <v>2711</v>
       </c>
       <c r="B2713" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2713" t="s">
         <v>2688</v>
@@ -38664,7 +39057,7 @@
         <v>2712</v>
       </c>
       <c r="B2714" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2714" t="s">
         <v>2689</v>
@@ -38675,7 +39068,7 @@
         <v>2713</v>
       </c>
       <c r="B2715" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2715" t="s">
         <v>2690</v>
@@ -38686,7 +39079,7 @@
         <v>2714</v>
       </c>
       <c r="B2716" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2716" t="s">
         <v>2691</v>
@@ -38697,7 +39090,7 @@
         <v>2715</v>
       </c>
       <c r="B2717" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2717" t="s">
         <v>2692</v>
@@ -38708,7 +39101,7 @@
         <v>2716</v>
       </c>
       <c r="B2718" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2718" t="s">
         <v>2693</v>
@@ -38719,7 +39112,7 @@
         <v>2717</v>
       </c>
       <c r="B2719" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2719" t="s">
         <v>2694</v>
@@ -38730,7 +39123,7 @@
         <v>2718</v>
       </c>
       <c r="B2720" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2720" t="s">
         <v>2695</v>
@@ -38741,7 +39134,7 @@
         <v>2719</v>
       </c>
       <c r="B2721" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2721" t="s">
         <v>2696</v>
@@ -38752,7 +39145,7 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2722" t="s">
         <v>2697</v>
@@ -38763,7 +39156,7 @@
         <v>2721</v>
       </c>
       <c r="B2723" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2723" t="s">
         <v>2698</v>
@@ -38774,7 +39167,7 @@
         <v>2722</v>
       </c>
       <c r="B2724" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2724" t="s">
         <v>2699</v>
@@ -38785,7 +39178,7 @@
         <v>2723</v>
       </c>
       <c r="B2725" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2725" t="s">
         <v>2700</v>
@@ -38796,7 +39189,7 @@
         <v>2724</v>
       </c>
       <c r="B2726" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2726" t="s">
         <v>2701</v>
@@ -38807,7 +39200,7 @@
         <v>2725</v>
       </c>
       <c r="B2727" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2727" t="s">
         <v>2702</v>
@@ -38818,7 +39211,7 @@
         <v>2726</v>
       </c>
       <c r="B2728" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2728" t="s">
         <v>2703</v>
@@ -38829,7 +39222,7 @@
         <v>2727</v>
       </c>
       <c r="B2729" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2729" t="s">
         <v>2704</v>
@@ -38840,7 +39233,7 @@
         <v>2728</v>
       </c>
       <c r="B2730" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2730" t="s">
         <v>2705</v>
@@ -38851,7 +39244,7 @@
         <v>2729</v>
       </c>
       <c r="B2731" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2731" t="s">
         <v>2706</v>
@@ -38862,7 +39255,7 @@
         <v>2730</v>
       </c>
       <c r="B2732" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2732" t="s">
         <v>2707</v>
@@ -38873,7 +39266,7 @@
         <v>2731</v>
       </c>
       <c r="B2733" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2733" t="s">
         <v>2708</v>
@@ -38884,7 +39277,7 @@
         <v>2732</v>
       </c>
       <c r="B2734" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2734" t="s">
         <v>2709</v>
@@ -38895,7 +39288,7 @@
         <v>2733</v>
       </c>
       <c r="B2735" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2735" t="s">
         <v>2710</v>
@@ -38906,7 +39299,7 @@
         <v>2734</v>
       </c>
       <c r="B2736" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2736" t="s">
         <v>2711</v>
@@ -38917,7 +39310,7 @@
         <v>2735</v>
       </c>
       <c r="B2737" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2737" t="s">
         <v>2712</v>
@@ -38928,7 +39321,7 @@
         <v>2736</v>
       </c>
       <c r="B2738" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2738" t="s">
         <v>2713</v>
@@ -38939,7 +39332,7 @@
         <v>2737</v>
       </c>
       <c r="B2739" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2739" t="s">
         <v>2714</v>
@@ -38950,7 +39343,7 @@
         <v>2738</v>
       </c>
       <c r="B2740" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2740" t="s">
         <v>2715</v>
@@ -38961,7 +39354,7 @@
         <v>2739</v>
       </c>
       <c r="B2741" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2741" t="s">
         <v>2716</v>
@@ -38972,7 +39365,7 @@
         <v>2740</v>
       </c>
       <c r="B2742" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2742" t="s">
         <v>2717</v>
@@ -38983,7 +39376,7 @@
         <v>2741</v>
       </c>
       <c r="B2743" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2743" t="s">
         <v>2718</v>
@@ -38994,7 +39387,7 @@
         <v>2742</v>
       </c>
       <c r="B2744" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2744" t="s">
         <v>2719</v>
@@ -39005,7 +39398,7 @@
         <v>2743</v>
       </c>
       <c r="B2745" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2745" t="s">
         <v>2720</v>
@@ -39016,7 +39409,7 @@
         <v>2744</v>
       </c>
       <c r="B2746" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2746" t="s">
         <v>2721</v>
@@ -39027,7 +39420,7 @@
         <v>2745</v>
       </c>
       <c r="B2747" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2747" t="s">
         <v>2722</v>
@@ -39038,7 +39431,7 @@
         <v>2746</v>
       </c>
       <c r="B2748" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2748" t="s">
         <v>2723</v>
@@ -39049,7 +39442,7 @@
         <v>2747</v>
       </c>
       <c r="B2749" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2749" t="s">
         <v>2724</v>
@@ -39060,7 +39453,7 @@
         <v>2748</v>
       </c>
       <c r="B2750" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2750" t="s">
         <v>2725</v>
@@ -39071,7 +39464,7 @@
         <v>2749</v>
       </c>
       <c r="B2751" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2751" t="s">
         <v>2726</v>
@@ -39082,7 +39475,7 @@
         <v>2750</v>
       </c>
       <c r="B2752" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2752" t="s">
         <v>2727</v>
@@ -39093,7 +39486,7 @@
         <v>2751</v>
       </c>
       <c r="B2753" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2753" t="s">
         <v>2728</v>
@@ -39104,7 +39497,7 @@
         <v>2752</v>
       </c>
       <c r="B2754" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2754" t="s">
         <v>2729</v>
@@ -39115,7 +39508,7 @@
         <v>2753</v>
       </c>
       <c r="B2755" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2755" t="s">
         <v>2730</v>
@@ -39126,7 +39519,7 @@
         <v>2754</v>
       </c>
       <c r="B2756" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2756" t="s">
         <v>2731</v>
@@ -39137,7 +39530,7 @@
         <v>2755</v>
       </c>
       <c r="B2757" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2757" t="s">
         <v>2732</v>
@@ -39148,7 +39541,7 @@
         <v>2756</v>
       </c>
       <c r="B2758" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2758" t="s">
         <v>2733</v>
@@ -39159,7 +39552,7 @@
         <v>2757</v>
       </c>
       <c r="B2759" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2759" t="s">
         <v>2734</v>
@@ -39170,7 +39563,7 @@
         <v>2758</v>
       </c>
       <c r="B2760" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2760" t="s">
         <v>2735</v>
@@ -39181,7 +39574,7 @@
         <v>2759</v>
       </c>
       <c r="B2761" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2761" t="s">
         <v>2736</v>
@@ -39192,7 +39585,7 @@
         <v>2760</v>
       </c>
       <c r="B2762" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2762" t="s">
         <v>2737</v>
@@ -39203,7 +39596,7 @@
         <v>2761</v>
       </c>
       <c r="B2763" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2763" t="s">
         <v>2738</v>
@@ -39214,7 +39607,7 @@
         <v>2762</v>
       </c>
       <c r="B2764" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2764" t="s">
         <v>2739</v>
@@ -39225,7 +39618,7 @@
         <v>2763</v>
       </c>
       <c r="B2765" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2765" t="s">
         <v>2740</v>
@@ -39236,7 +39629,7 @@
         <v>2764</v>
       </c>
       <c r="B2766" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2766" t="s">
         <v>2741</v>
@@ -39247,7 +39640,7 @@
         <v>2765</v>
       </c>
       <c r="B2767" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2767" t="s">
         <v>2742</v>
@@ -39258,7 +39651,7 @@
         <v>2766</v>
       </c>
       <c r="B2768" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2768" t="s">
         <v>2743</v>
@@ -39269,7 +39662,7 @@
         <v>2767</v>
       </c>
       <c r="B2769" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2769" t="s">
         <v>2744</v>
@@ -39280,7 +39673,7 @@
         <v>2768</v>
       </c>
       <c r="B2770" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2770" t="s">
         <v>2745</v>
@@ -39291,7 +39684,7 @@
         <v>2769</v>
       </c>
       <c r="B2771" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2771" t="s">
         <v>2746</v>
@@ -39302,7 +39695,7 @@
         <v>2770</v>
       </c>
       <c r="B2772" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2772" t="s">
         <v>2747</v>
@@ -39313,7 +39706,7 @@
         <v>2771</v>
       </c>
       <c r="B2773" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2773" t="s">
         <v>2748</v>
@@ -39324,7 +39717,7 @@
         <v>2772</v>
       </c>
       <c r="B2774" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2774" t="s">
         <v>2749</v>
@@ -39335,7 +39728,7 @@
         <v>2773</v>
       </c>
       <c r="B2775" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2775" t="s">
         <v>2750</v>
@@ -39346,7 +39739,7 @@
         <v>2774</v>
       </c>
       <c r="B2776" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2776" t="s">
         <v>2751</v>
@@ -39357,7 +39750,7 @@
         <v>2775</v>
       </c>
       <c r="B2777" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2777" t="s">
         <v>2752</v>
@@ -39368,7 +39761,7 @@
         <v>2776</v>
       </c>
       <c r="B2778" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2778" t="s">
         <v>2753</v>
@@ -39379,7 +39772,7 @@
         <v>2777</v>
       </c>
       <c r="B2779" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2779" t="s">
         <v>2754</v>
@@ -39390,7 +39783,7 @@
         <v>2778</v>
       </c>
       <c r="B2780" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2780" t="s">
         <v>2755</v>
@@ -39401,7 +39794,7 @@
         <v>2779</v>
       </c>
       <c r="B2781" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2781" t="s">
         <v>2756</v>
@@ -39412,7 +39805,7 @@
         <v>2780</v>
       </c>
       <c r="B2782" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2782" t="s">
         <v>2757</v>
@@ -39423,7 +39816,7 @@
         <v>2781</v>
       </c>
       <c r="B2783" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2783" t="s">
         <v>2758</v>
@@ -39434,7 +39827,7 @@
         <v>2782</v>
       </c>
       <c r="B2784" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2784" t="s">
         <v>2759</v>
@@ -39445,7 +39838,7 @@
         <v>2783</v>
       </c>
       <c r="B2785" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2785" t="s">
         <v>2760</v>
@@ -39456,7 +39849,7 @@
         <v>2784</v>
       </c>
       <c r="B2786" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2786" t="s">
         <v>2761</v>
@@ -39467,7 +39860,7 @@
         <v>2785</v>
       </c>
       <c r="B2787" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2787" t="s">
         <v>2762</v>
@@ -39478,7 +39871,7 @@
         <v>2786</v>
       </c>
       <c r="B2788" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2788" t="s">
         <v>2763</v>
@@ -39489,7 +39882,7 @@
         <v>2787</v>
       </c>
       <c r="B2789" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2789" t="s">
         <v>2764</v>
@@ -39500,7 +39893,7 @@
         <v>2788</v>
       </c>
       <c r="B2790" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2790" t="s">
         <v>2765</v>
@@ -39511,7 +39904,7 @@
         <v>2789</v>
       </c>
       <c r="B2791" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2791" t="s">
         <v>2766</v>
@@ -39522,7 +39915,7 @@
         <v>2790</v>
       </c>
       <c r="B2792" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2792" t="s">
         <v>2767</v>
@@ -39533,7 +39926,7 @@
         <v>2791</v>
       </c>
       <c r="B2793" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2793" t="s">
         <v>2768</v>
@@ -39544,7 +39937,7 @@
         <v>2792</v>
       </c>
       <c r="B2794" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2794" t="s">
         <v>2769</v>
@@ -39555,7 +39948,7 @@
         <v>2793</v>
       </c>
       <c r="B2795" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2795" t="s">
         <v>2770</v>
@@ -39566,7 +39959,7 @@
         <v>2794</v>
       </c>
       <c r="B2796" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2796" t="s">
         <v>2771</v>
@@ -39577,7 +39970,7 @@
         <v>2795</v>
       </c>
       <c r="B2797" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2797" t="s">
         <v>2772</v>
@@ -39588,7 +39981,7 @@
         <v>2796</v>
       </c>
       <c r="B2798" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2798" t="s">
         <v>2773</v>
@@ -39599,7 +39992,7 @@
         <v>2797</v>
       </c>
       <c r="B2799" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2799" t="s">
         <v>2774</v>
@@ -39610,7 +40003,7 @@
         <v>2798</v>
       </c>
       <c r="B2800" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2800" t="s">
         <v>2775</v>
@@ -39621,7 +40014,7 @@
         <v>2799</v>
       </c>
       <c r="B2801" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2801" t="s">
         <v>2776</v>
@@ -39632,7 +40025,7 @@
         <v>2800</v>
       </c>
       <c r="B2802" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2802" t="s">
         <v>2777</v>
@@ -39643,7 +40036,7 @@
         <v>2801</v>
       </c>
       <c r="B2803" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2803" t="s">
         <v>2778</v>
@@ -39654,7 +40047,7 @@
         <v>2802</v>
       </c>
       <c r="B2804" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2804" t="s">
         <v>2779</v>
@@ -39665,7 +40058,7 @@
         <v>2803</v>
       </c>
       <c r="B2805" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2805" t="s">
         <v>2780</v>
@@ -39676,7 +40069,7 @@
         <v>2804</v>
       </c>
       <c r="B2806" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2806" t="s">
         <v>2781</v>
@@ -39687,7 +40080,7 @@
         <v>2805</v>
       </c>
       <c r="B2807" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2807" t="s">
         <v>2782</v>
@@ -39698,7 +40091,7 @@
         <v>2806</v>
       </c>
       <c r="B2808" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2808" t="s">
         <v>2783</v>
@@ -39709,7 +40102,7 @@
         <v>2807</v>
       </c>
       <c r="B2809" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2809" t="s">
         <v>2784</v>
@@ -39720,7 +40113,7 @@
         <v>2808</v>
       </c>
       <c r="B2810" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2810" t="s">
         <v>2785</v>
@@ -39731,7 +40124,7 @@
         <v>2809</v>
       </c>
       <c r="B2811" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2811" t="s">
         <v>2786</v>
@@ -39742,7 +40135,7 @@
         <v>2810</v>
       </c>
       <c r="B2812" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2812" t="s">
         <v>2787</v>
@@ -39753,7 +40146,7 @@
         <v>2811</v>
       </c>
       <c r="B2813" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2813" t="s">
         <v>2788</v>
@@ -39764,7 +40157,7 @@
         <v>2812</v>
       </c>
       <c r="B2814" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2814" t="s">
         <v>2789</v>
@@ -39775,7 +40168,7 @@
         <v>2813</v>
       </c>
       <c r="B2815" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2815" t="s">
         <v>2790</v>
@@ -39786,7 +40179,7 @@
         <v>2814</v>
       </c>
       <c r="B2816" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2816" t="s">
         <v>2791</v>
@@ -39797,7 +40190,7 @@
         <v>2815</v>
       </c>
       <c r="B2817" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2817" t="s">
         <v>2792</v>
@@ -39808,7 +40201,7 @@
         <v>2816</v>
       </c>
       <c r="B2818" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2818" t="s">
         <v>2793</v>
@@ -39819,7 +40212,7 @@
         <v>2817</v>
       </c>
       <c r="B2819" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2819" t="s">
         <v>2794</v>
@@ -39830,7 +40223,7 @@
         <v>2818</v>
       </c>
       <c r="B2820" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2820" t="s">
         <v>2795</v>
@@ -39841,7 +40234,7 @@
         <v>2819</v>
       </c>
       <c r="B2821" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2821" t="s">
         <v>2796</v>
@@ -39852,7 +40245,7 @@
         <v>2820</v>
       </c>
       <c r="B2822" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2822" t="s">
         <v>2797</v>
@@ -39863,7 +40256,7 @@
         <v>2821</v>
       </c>
       <c r="B2823" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2823" t="s">
         <v>2798</v>
@@ -39874,7 +40267,7 @@
         <v>2822</v>
       </c>
       <c r="B2824" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2824" t="s">
         <v>2799</v>
@@ -39885,7 +40278,7 @@
         <v>2823</v>
       </c>
       <c r="B2825" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2825" t="s">
         <v>2800</v>
@@ -39896,7 +40289,7 @@
         <v>2824</v>
       </c>
       <c r="B2826" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2826" t="s">
         <v>2801</v>
@@ -39907,7 +40300,7 @@
         <v>2825</v>
       </c>
       <c r="B2827" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2827" t="s">
         <v>2802</v>
@@ -39918,7 +40311,7 @@
         <v>2826</v>
       </c>
       <c r="B2828" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2828" t="s">
         <v>2803</v>
@@ -39929,7 +40322,7 @@
         <v>2827</v>
       </c>
       <c r="B2829" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2829" t="s">
         <v>2804</v>
@@ -39940,7 +40333,7 @@
         <v>2828</v>
       </c>
       <c r="B2830" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2830" t="s">
         <v>2805</v>
@@ -39951,7 +40344,7 @@
         <v>2829</v>
       </c>
       <c r="B2831" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2831" t="s">
         <v>2806</v>
@@ -39962,7 +40355,7 @@
         <v>2830</v>
       </c>
       <c r="B2832" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2832" t="s">
         <v>2807</v>
@@ -39973,7 +40366,7 @@
         <v>2831</v>
       </c>
       <c r="B2833" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2833" t="s">
         <v>2808</v>
@@ -39984,7 +40377,7 @@
         <v>2832</v>
       </c>
       <c r="B2834" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2834" t="s">
         <v>2809</v>
@@ -39995,7 +40388,7 @@
         <v>2833</v>
       </c>
       <c r="B2835" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2835" t="s">
         <v>2810</v>
@@ -40006,7 +40399,7 @@
         <v>2834</v>
       </c>
       <c r="B2836" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2836" t="s">
         <v>2811</v>
@@ -40017,7 +40410,7 @@
         <v>2835</v>
       </c>
       <c r="B2837" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2837" t="s">
         <v>2812</v>
@@ -40028,10 +40421,1451 @@
         <v>2836</v>
       </c>
       <c r="B2838" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2838" t="s">
         <v>2813</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:3">
+      <c r="A2839" s="1">
+        <v>2837</v>
+      </c>
+      <c r="B2839" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2839" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:3">
+      <c r="A2840" s="1">
+        <v>2838</v>
+      </c>
+      <c r="B2840" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2840" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:3">
+      <c r="A2841" s="1">
+        <v>2839</v>
+      </c>
+      <c r="B2841" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2841" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:3">
+      <c r="A2842" s="1">
+        <v>2840</v>
+      </c>
+      <c r="B2842" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2842" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:3">
+      <c r="A2843" s="1">
+        <v>2841</v>
+      </c>
+      <c r="B2843" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2843" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:3">
+      <c r="A2844" s="1">
+        <v>2842</v>
+      </c>
+      <c r="B2844" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:3">
+      <c r="A2845" s="1">
+        <v>2843</v>
+      </c>
+      <c r="B2845" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2845" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:3">
+      <c r="A2846" s="1">
+        <v>2844</v>
+      </c>
+      <c r="B2846" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2846" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:3">
+      <c r="A2847" s="1">
+        <v>2845</v>
+      </c>
+      <c r="B2847" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2847" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:3">
+      <c r="A2848" s="1">
+        <v>2846</v>
+      </c>
+      <c r="B2848" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2848" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:3">
+      <c r="A2849" s="1">
+        <v>2847</v>
+      </c>
+      <c r="B2849" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2849" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:3">
+      <c r="A2850" s="1">
+        <v>2848</v>
+      </c>
+      <c r="B2850" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:3">
+      <c r="A2851" s="1">
+        <v>2849</v>
+      </c>
+      <c r="B2851" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2851" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:3">
+      <c r="A2852" s="1">
+        <v>2850</v>
+      </c>
+      <c r="B2852" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2852" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:3">
+      <c r="A2853" s="1">
+        <v>2851</v>
+      </c>
+      <c r="B2853" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:3">
+      <c r="A2854" s="1">
+        <v>2852</v>
+      </c>
+      <c r="B2854" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2854" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:3">
+      <c r="A2855" s="1">
+        <v>2853</v>
+      </c>
+      <c r="B2855" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2855" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:3">
+      <c r="A2856" s="1">
+        <v>2854</v>
+      </c>
+      <c r="B2856" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2856" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:3">
+      <c r="A2857" s="1">
+        <v>2855</v>
+      </c>
+      <c r="B2857" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2857" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:3">
+      <c r="A2858" s="1">
+        <v>2856</v>
+      </c>
+      <c r="B2858" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2858" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:3">
+      <c r="A2859" s="1">
+        <v>2857</v>
+      </c>
+      <c r="B2859" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2859" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:3">
+      <c r="A2860" s="1">
+        <v>2858</v>
+      </c>
+      <c r="B2860" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2860" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:3">
+      <c r="A2861" s="1">
+        <v>2859</v>
+      </c>
+      <c r="B2861" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:3">
+      <c r="A2862" s="1">
+        <v>2860</v>
+      </c>
+      <c r="B2862" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2862" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:3">
+      <c r="A2863" s="1">
+        <v>2861</v>
+      </c>
+      <c r="B2863" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2863" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:3">
+      <c r="A2864" s="1">
+        <v>2862</v>
+      </c>
+      <c r="B2864" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2864" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:3">
+      <c r="A2865" s="1">
+        <v>2863</v>
+      </c>
+      <c r="B2865" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2865" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:3">
+      <c r="A2866" s="1">
+        <v>2864</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3">
+      <c r="A2867" s="1">
+        <v>2865</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3">
+      <c r="A2868" s="1">
+        <v>2866</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3">
+      <c r="A2869" s="1">
+        <v>2867</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3">
+      <c r="A2870" s="1">
+        <v>2868</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3">
+      <c r="A2871" s="1">
+        <v>2869</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3">
+      <c r="A2872" s="1">
+        <v>2870</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3">
+      <c r="A2873" s="1">
+        <v>2871</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3">
+      <c r="A2874" s="1">
+        <v>2872</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:3">
+      <c r="A2875" s="1">
+        <v>2873</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3">
+      <c r="A2876" s="1">
+        <v>2874</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3">
+      <c r="A2877" s="1">
+        <v>2875</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3">
+      <c r="A2878" s="1">
+        <v>2876</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3">
+      <c r="A2879" s="1">
+        <v>2877</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3">
+      <c r="A2880" s="1">
+        <v>2878</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3">
+      <c r="A2881" s="1">
+        <v>2879</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3">
+      <c r="A2882" s="1">
+        <v>2880</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3">
+      <c r="A2883" s="1">
+        <v>2881</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3">
+      <c r="A2884" s="1">
+        <v>2882</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3">
+      <c r="A2885" s="1">
+        <v>2883</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:3">
+      <c r="A2886" s="1">
+        <v>2884</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3">
+      <c r="A2887" s="1">
+        <v>2885</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:3">
+      <c r="A2888" s="1">
+        <v>2886</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:3">
+      <c r="A2889" s="1">
+        <v>2887</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3">
+      <c r="A2890" s="1">
+        <v>2888</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3">
+      <c r="A2891" s="1">
+        <v>2889</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3">
+      <c r="A2892" s="1">
+        <v>2890</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3">
+      <c r="A2893" s="1">
+        <v>2891</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3">
+      <c r="A2894" s="1">
+        <v>2892</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3">
+      <c r="A2895" s="1">
+        <v>2893</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3">
+      <c r="A2896" s="1">
+        <v>2894</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3">
+      <c r="A2897" s="1">
+        <v>2895</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3">
+      <c r="A2898" s="1">
+        <v>2896</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3">
+      <c r="A2899" s="1">
+        <v>2897</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:3">
+      <c r="A2900" s="1">
+        <v>2898</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3">
+      <c r="A2901" s="1">
+        <v>2899</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3">
+      <c r="A2902" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:3">
+      <c r="A2903" s="1">
+        <v>2901</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3">
+      <c r="A2904" s="1">
+        <v>2902</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3">
+      <c r="A2905" s="1">
+        <v>2903</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3">
+      <c r="A2906" s="1">
+        <v>2904</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3">
+      <c r="A2907" s="1">
+        <v>2905</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3">
+      <c r="A2908" s="1">
+        <v>2906</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3">
+      <c r="A2909" s="1">
+        <v>2907</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3">
+      <c r="A2910" s="1">
+        <v>2908</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3">
+      <c r="A2911" s="1">
+        <v>2909</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3">
+      <c r="A2912" s="1">
+        <v>2910</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:3">
+      <c r="A2913" s="1">
+        <v>2911</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:3">
+      <c r="A2914" s="1">
+        <v>2912</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:3">
+      <c r="A2915" s="1">
+        <v>2913</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3">
+      <c r="A2916" s="1">
+        <v>2914</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:3">
+      <c r="A2917" s="1">
+        <v>2915</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:3">
+      <c r="A2918" s="1">
+        <v>2916</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:3">
+      <c r="A2919" s="1">
+        <v>2917</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:3">
+      <c r="A2920" s="1">
+        <v>2918</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:3">
+      <c r="A2921" s="1">
+        <v>2919</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:3">
+      <c r="A2922" s="1">
+        <v>2920</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:3">
+      <c r="A2923" s="1">
+        <v>2921</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:3">
+      <c r="A2924" s="1">
+        <v>2922</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:3">
+      <c r="A2925" s="1">
+        <v>2923</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:3">
+      <c r="A2926" s="1">
+        <v>2924</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:3">
+      <c r="A2927" s="1">
+        <v>2925</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:3">
+      <c r="A2928" s="1">
+        <v>2926</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:3">
+      <c r="A2929" s="1">
+        <v>2927</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:3">
+      <c r="A2930" s="1">
+        <v>2928</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:3">
+      <c r="A2931" s="1">
+        <v>2929</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:3">
+      <c r="A2932" s="1">
+        <v>2930</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:3">
+      <c r="A2933" s="1">
+        <v>2931</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:3">
+      <c r="A2934" s="1">
+        <v>2932</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:3">
+      <c r="A2935" s="1">
+        <v>2933</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:3">
+      <c r="A2936" s="1">
+        <v>2934</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:3">
+      <c r="A2937" s="1">
+        <v>2935</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:3">
+      <c r="A2938" s="1">
+        <v>2936</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:3">
+      <c r="A2939" s="1">
+        <v>2937</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:3">
+      <c r="A2940" s="1">
+        <v>2938</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:3">
+      <c r="A2941" s="1">
+        <v>2939</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:3">
+      <c r="A2942" s="1">
+        <v>2940</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:3">
+      <c r="A2943" s="1">
+        <v>2941</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:3">
+      <c r="A2944" s="1">
+        <v>2942</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:3">
+      <c r="A2945" s="1">
+        <v>2943</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:3">
+      <c r="A2946" s="1">
+        <v>2944</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:3">
+      <c r="A2947" s="1">
+        <v>2945</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:3">
+      <c r="A2948" s="1">
+        <v>2946</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:3">
+      <c r="A2949" s="1">
+        <v>2947</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:3">
+      <c r="A2950" s="1">
+        <v>2948</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:3">
+      <c r="A2951" s="1">
+        <v>2949</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:3">
+      <c r="A2952" s="1">
+        <v>2950</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:3">
+      <c r="A2953" s="1">
+        <v>2951</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:3">
+      <c r="A2954" s="1">
+        <v>2952</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:3">
+      <c r="A2955" s="1">
+        <v>2953</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:3">
+      <c r="A2956" s="1">
+        <v>2954</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:3">
+      <c r="A2957" s="1">
+        <v>2955</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:3">
+      <c r="A2958" s="1">
+        <v>2956</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:3">
+      <c r="A2959" s="1">
+        <v>2957</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:3">
+      <c r="A2960" s="1">
+        <v>2958</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:3">
+      <c r="A2961" s="1">
+        <v>2959</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:3">
+      <c r="A2962" s="1">
+        <v>2960</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:3">
+      <c r="A2963" s="1">
+        <v>2961</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:3">
+      <c r="A2964" s="1">
+        <v>2962</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:3">
+      <c r="A2965" s="1">
+        <v>2963</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:3">
+      <c r="A2966" s="1">
+        <v>2964</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:3">
+      <c r="A2967" s="1">
+        <v>2965</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:3">
+      <c r="A2968" s="1">
+        <v>2966</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:3">
+      <c r="A2969" s="1">
+        <v>2967</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>2944</v>
       </c>
     </row>
   </sheetData>
